--- a/Reading/asset classes DBLTX.xlsx
+++ b/Reading/asset classes DBLTX.xlsx
@@ -1711,139 +1711,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1860,6 +1727,139 @@
     <xf numFmtId="0" fontId="45" fillId="8" borderId="6" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1891,23 +1891,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2088,6 +2071,23 @@
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2099,26 +2099,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="bloomberg.rtd">
-      <tp>
-        <v>10.7</v>
-        <stp/>
-        <stp>##V3_BDHV12</stp>
-        <stp>DBLTX US Equity</stp>
-        <stp>px_last</stp>
-        <stp>9/29/2017</stp>
-        <stp>9/29/2017</stp>
-        <stp>[asset classes DBLTX.xlsx]Comparative Returns!R102C3</stp>
-        <tr r="C102" s="4"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2406,11 +2386,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="644514928"/>
-        <c:axId val="644515488"/>
+        <c:axId val="623479104"/>
+        <c:axId val="623479664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="644514928"/>
+        <c:axId val="623479104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,7 +2433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644515488"/>
+        <c:crossAx val="623479664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2461,7 +2441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="644515488"/>
+        <c:axId val="623479664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2512,7 +2492,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644514928"/>
+        <c:crossAx val="623479104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2761,11 +2741,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="644518288"/>
-        <c:axId val="644518848"/>
+        <c:axId val="623491984"/>
+        <c:axId val="623492544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="644518288"/>
+        <c:axId val="623491984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,14 +2788,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644518848"/>
+        <c:crossAx val="623492544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="644518848"/>
+        <c:axId val="623492544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,7 +2846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644518288"/>
+        <c:crossAx val="623491984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -4118,31 +4098,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F10" totalsRowShown="0" dataDxfId="12" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F10" totalsRowShown="0" dataDxfId="17" dataCellStyle="Percent">
   <autoFilter ref="A1:F10"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Return Table"/>
-    <tableColumn id="2" name="DBLTX US Equity" dataDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="3" name="LBUSTRUU Index" dataDxfId="16" dataCellStyle="Percent"/>
-    <tableColumn id="4" name="LUMSTRUU Index" dataDxfId="15" dataCellStyle="Percent"/>
-    <tableColumn id="5" name="MSUMX Equity" dataDxfId="14" dataCellStyle="Percent"/>
-    <tableColumn id="6" name="Intermediate Credit" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="2" name="DBLTX US Equity" dataDxfId="16" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="LBUSTRUU Index" dataDxfId="15" dataCellStyle="Percent"/>
+    <tableColumn id="4" name="LUMSTRUU Index" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="5" name="MSUMX Equity" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="6" name="Intermediate Credit" dataDxfId="12" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="H1:L10" totalsRowShown="0" dataDxfId="7" dataCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="H1:L10" totalsRowShown="0" dataDxfId="11" dataCellStyle="Percent">
   <autoFilter ref="H1:L10"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Alpha Table"/>
-    <tableColumn id="2" name="Alpha over Barclays Agg" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="3" name="Alpha over Barclays MTGE Index" dataDxfId="10" dataCellStyle="Percent"/>
-    <tableColumn id="4" name="Alpha over Peer" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="5" name="Alpha over Intermediate Credit" dataDxfId="8" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table1[[#This Row],[DBLTX US Equity]]-Table1[[#This Row],[Intermediate Credit]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" name="Alpha over Barclays Agg" dataDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="3" name="Alpha over Barclays MTGE Index" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="4" name="Alpha over Peer" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="5" name="Alpha over Intermediate Credit" dataDxfId="7" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4152,18 +4130,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="I14:L16" totalsRowShown="0">
   <autoFilter ref="I14:L16"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Alpha over Barclays Agg" dataDxfId="6">
-      <calculatedColumnFormula>$B$15-C15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="Alpha over Barclays MTGE Index" dataDxfId="5">
-      <calculatedColumnFormula>$B$15-D15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="Alpha over peer" dataDxfId="4">
-      <calculatedColumnFormula>B15-E15</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="Alpha in Intermediate Credit">
-      <calculatedColumnFormula>B15-F15</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="Alpha over Barclays Agg" dataDxfId="6"/>
+    <tableColumn id="2" name="Alpha over Barclays MTGE Index" dataDxfId="5"/>
+    <tableColumn id="3" name="Alpha over peer" dataDxfId="4"/>
+    <tableColumn id="4" name="Alpha in Intermediate Credit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4174,21 +4144,11 @@
   <autoFilter ref="A14:F16"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Performance"/>
-    <tableColumn id="2" name="DBLTX US Equity" dataDxfId="3">
-      <calculatedColumnFormula>SUM(B4:B9)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="LBUSTRUU Index" dataDxfId="2">
-      <calculatedColumnFormula>SUM(C4:C9)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="LUMSTRUU Index" dataDxfId="1">
-      <calculatedColumnFormula>SUM(D4:D9)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="MSUMX Equity" dataDxfId="0">
-      <calculatedColumnFormula>SUM(E4:E9)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="Intermediate Credit">
-      <calculatedColumnFormula>SUM(F4:F9)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" name="DBLTX US Equity" dataDxfId="3"/>
+    <tableColumn id="3" name="LBUSTRUU Index" dataDxfId="2"/>
+    <tableColumn id="4" name="LUMSTRUU Index" dataDxfId="1"/>
+    <tableColumn id="5" name="MSUMX Equity" dataDxfId="0"/>
+    <tableColumn id="6" name="Intermediate Credit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4460,7 +4420,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4479,15 +4439,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
       <c r="H1" t="s">
         <v>234</v>
       </c>
@@ -4496,10 +4456,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
@@ -4513,30 +4473,30 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="H3" s="155" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="H3" s="108" t="s">
         <v>233</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="155" t="s">
+      <c r="J3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="155" t="s">
+      <c r="K3" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="156" t="s">
+      <c r="N3" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="156" t="s">
+      <c r="O3" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="156" t="s">
+      <c r="P3" s="109" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4554,65 +4514,61 @@
       <c r="E4" s="3">
         <v>26.39</v>
       </c>
-      <c r="H4" s="155" t="s">
+      <c r="H4" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="155">
-        <f>C4</f>
+      <c r="I4" s="108">
         <v>5.17</v>
       </c>
-      <c r="J4" s="155">
+      <c r="J4" s="108">
         <v>36.1</v>
       </c>
-      <c r="K4" s="155">
-        <f>E4</f>
+      <c r="K4" s="108">
         <v>26.39</v>
       </c>
-      <c r="N4" s="156" t="s">
+      <c r="N4" s="109" t="s">
         <v>226</v>
       </c>
-      <c r="O4" s="156">
+      <c r="O4" s="109">
         <v>1.45</v>
       </c>
-      <c r="P4" s="156">
+      <c r="P4" s="109">
         <v>26.97</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="H5" s="155" t="s">
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="H5" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="155">
-        <f>C17</f>
+      <c r="I5" s="108">
         <v>1.77</v>
       </c>
-      <c r="J5" s="155">
+      <c r="J5" s="108">
         <v>25.8</v>
       </c>
-      <c r="K5" s="155">
-        <f>E17</f>
+      <c r="K5" s="108">
         <v>32.36</v>
       </c>
-      <c r="N5" s="156" t="s">
+      <c r="N5" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="O5" s="156">
+      <c r="O5" s="109">
         <v>1.03</v>
       </c>
-      <c r="P5" s="156">
+      <c r="P5" s="109">
         <v>22.46</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="107"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="4">
         <v>4.72</v>
       </c>
@@ -4622,67 +4578,61 @@
       <c r="E6" s="4">
         <v>22.58</v>
       </c>
-      <c r="H6" s="155" t="s">
+      <c r="H6" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="155">
-        <f>C28</f>
+      <c r="I6" s="108">
         <v>85.67</v>
       </c>
-      <c r="J6" s="155">
-        <f>7.9+30.3</f>
+      <c r="J6" s="108">
         <v>38.200000000000003</v>
       </c>
-      <c r="K6" s="155">
-        <f>E28</f>
+      <c r="K6" s="108">
         <v>38.74</v>
       </c>
-      <c r="N6" s="156" t="s">
+      <c r="N6" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="O6" s="156">
+      <c r="O6" s="109">
         <v>4.7300000000000004</v>
       </c>
-      <c r="P6" s="156">
+      <c r="P6" s="109">
         <v>13.64</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="H7" s="155" t="s">
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="H7" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="155">
-        <f>C47</f>
+      <c r="I7" s="108">
         <v>0</v>
       </c>
-      <c r="J7" s="155">
-        <f>D47</f>
+      <c r="J7" s="108">
         <v>0</v>
       </c>
-      <c r="K7" s="155">
-        <f>E47</f>
+      <c r="K7" s="108">
         <v>0</v>
       </c>
-      <c r="N7" s="156" t="s">
+      <c r="N7" s="109" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="156">
+      <c r="O7" s="109">
         <v>2.88</v>
       </c>
-      <c r="P7" s="156">
+      <c r="P7" s="109">
         <v>13.5</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="107"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="4">
         <v>0</v>
       </c>
@@ -4692,52 +4642,49 @@
       <c r="E8" s="4">
         <v>0.8</v>
       </c>
-      <c r="N8" s="156" t="s">
+      <c r="N8" s="109" t="s">
         <v>230</v>
       </c>
-      <c r="O8" s="156">
+      <c r="O8" s="109">
         <v>21</v>
       </c>
-      <c r="P8" s="156">
+      <c r="P8" s="109">
         <v>2.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="H9" s="155" t="s">
+      <c r="A9" s="111"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="H9" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="155">
-        <f>SUM(I3:I7)</f>
+      <c r="I9" s="108">
         <v>92.61</v>
       </c>
-      <c r="J9" s="155">
-        <f>SUM(J3:J7)</f>
+      <c r="J9" s="108">
         <v>100.10000000000001</v>
       </c>
-      <c r="K9" s="155">
-        <f>SUM(K3:K7)</f>
+      <c r="K9" s="108">
         <v>97.490000000000009</v>
       </c>
-      <c r="N9" s="156" t="s">
+      <c r="N9" s="109" t="s">
         <v>231</v>
       </c>
-      <c r="O9" s="156">
+      <c r="O9" s="109">
         <v>50.85</v>
       </c>
-      <c r="P9" s="156">
+      <c r="P9" s="109">
         <v>16.5</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="107"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="4">
         <v>0.45</v>
       </c>
@@ -4747,34 +4694,34 @@
       <c r="E10" s="4">
         <v>0.87</v>
       </c>
-      <c r="N10" s="156" t="s">
+      <c r="N10" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="O10" s="156">
+      <c r="O10" s="109">
         <v>9.41</v>
       </c>
-      <c r="P10" s="156">
+      <c r="P10" s="109">
         <v>1.89</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="H11" s="157" t="s">
+      <c r="A11" s="111"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="H11" s="110" t="s">
         <v>234</v>
       </c>
-      <c r="I11" s="157">
+      <c r="I11" s="110">
         <v>5.8470000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="107"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="4">
         <v>0</v>
       </c>
@@ -4784,25 +4731,25 @@
       <c r="E12" s="4">
         <v>1.58</v>
       </c>
-      <c r="H12" s="157" t="s">
+      <c r="H12" s="110" t="s">
         <v>235</v>
       </c>
-      <c r="I12" s="157" t="s">
+      <c r="I12" s="110" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
     </row>
     <row r="14" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="107"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="4">
         <v>0</v>
       </c>
@@ -4814,15 +4761,15 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="107"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -4843,17 +4790,17 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="107"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="4">
         <v>1.77</v>
       </c>
@@ -4865,19 +4812,19 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="107"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="4">
         <v>0</v>
       </c>
@@ -4889,19 +4836,19 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="107"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="4">
         <v>0</v>
       </c>
@@ -4913,19 +4860,19 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="107"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="4">
         <v>0</v>
       </c>
@@ -4937,22 +4884,22 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="107"/>
-      <c r="B27" s="107"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>16</v>
@@ -4966,21 +4913,21 @@
       <c r="E28" s="3">
         <v>38.74</v>
       </c>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
     </row>
     <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="107" t="s">
+      <c r="A30" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="107"/>
+      <c r="B30" s="112"/>
       <c r="C30" s="4">
         <v>25.93</v>
       </c>
@@ -4992,19 +4939,19 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="107"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="4">
         <v>0</v>
       </c>
@@ -5016,19 +4963,19 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="107" t="s">
+      <c r="A34" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="107"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="4">
         <v>21.16</v>
       </c>
@@ -5040,19 +4987,19 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="106"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
     </row>
     <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="107"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="4">
         <v>16.93</v>
       </c>
@@ -5064,19 +5011,19 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="106"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="107" t="s">
+      <c r="A38" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="107"/>
+      <c r="B38" s="112"/>
       <c r="C38" s="4">
         <v>8.49</v>
       </c>
@@ -5088,19 +5035,19 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="106"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="107" t="s">
+      <c r="A40" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="107"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="4">
         <v>13.16</v>
       </c>
@@ -5112,19 +5059,19 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="107" t="s">
+      <c r="A42" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="107"/>
+      <c r="B42" s="112"/>
       <c r="C42" s="4">
         <v>0</v>
       </c>
@@ -5136,20 +5083,20 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="106"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="107"/>
-      <c r="B44" s="107"/>
+      <c r="A44" s="112"/>
+      <c r="B44" s="112"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>24</v>
@@ -5165,20 +5112,20 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="106"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="107"/>
-      <c r="B47" s="107"/>
+      <c r="A47" s="112"/>
+      <c r="B47" s="112"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
         <v>25</v>
@@ -5194,15 +5141,15 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
-      <c r="B49" s="106"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="106"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="107"/>
-      <c r="B50" s="107"/>
+      <c r="A50" s="112"/>
+      <c r="B50" s="112"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -5223,43 +5170,45 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="106"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="110"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="F28:G28"/>
@@ -5276,28 +5225,26 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5311,7 +5258,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5379,131 +5326,131 @@
       <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="126"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="120"/>
     </row>
     <row r="5" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="126"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="120"/>
     </row>
     <row r="6" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="149"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="149"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
       <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="128"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="121"/>
+      <c r="A7" s="122"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="123"/>
       <c r="E7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121" t="s">
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="118">
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="128">
         <v>1537120957</v>
       </c>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="124">
+      <c r="Q7" s="124"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="130">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="U7" s="120"/>
+      <c r="U7" s="124"/>
     </row>
     <row r="8" spans="1:21" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="128"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="121"/>
+      <c r="A8" s="122"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="123"/>
       <c r="E8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="119"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="123"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="120"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="124"/>
     </row>
     <row r="9" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
@@ -5530,19 +5477,19 @@
     </row>
     <row r="10" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="13"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -5554,60 +5501,60 @@
       <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="121"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121" t="s">
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="118">
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="128">
         <v>2241302856</v>
       </c>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="124">
+      <c r="Q11" s="124"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="130">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="U11" s="120"/>
+      <c r="U11" s="124"/>
     </row>
     <row r="12" spans="1:21" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="128"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="121"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="123"/>
       <c r="E12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="119"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="120"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="124"/>
     </row>
     <row r="13" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
@@ -5636,84 +5583,84 @@
     </row>
     <row r="14" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="149"/>
-      <c r="M14" s="149"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
       <c r="U14" s="13"/>
     </row>
     <row r="15" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="128"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="121"/>
+      <c r="A15" s="122"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="123"/>
       <c r="E15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121" t="s">
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="118">
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="128">
         <v>3743171709</v>
       </c>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="124">
+      <c r="Q15" s="124"/>
+      <c r="R15" s="123"/>
+      <c r="S15" s="126"/>
+      <c r="T15" s="130">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="U15" s="120"/>
+      <c r="U15" s="124"/>
     </row>
     <row r="16" spans="1:21" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="128"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="121"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="123"/>
       <c r="E16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="120"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="124"/>
     </row>
     <row r="17" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
@@ -5742,71 +5689,71 @@
     </row>
     <row r="18" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="149"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="149"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="149"/>
-      <c r="Q18" s="149"/>
-      <c r="R18" s="149"/>
-      <c r="S18" s="149"/>
-      <c r="T18" s="149"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
       <c r="U18" s="13"/>
     </row>
     <row r="19" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="147"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="132"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
     </row>
     <row r="20" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="148" t="s">
+      <c r="E20" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="148"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="133"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
@@ -5853,47 +5800,47 @@
       <c r="U21" s="36"/>
     </row>
     <row r="22" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="147"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="132"/>
+      <c r="Q22" s="132"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
     </row>
     <row r="23" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="148" t="s">
+      <c r="E23" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="133"/>
+      <c r="O23" s="133"/>
+      <c r="P23" s="133"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
@@ -5940,47 +5887,47 @@
       <c r="U24" s="36"/>
     </row>
     <row r="25" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="147"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="147"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="147"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
+      <c r="A25" s="132"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
     </row>
     <row r="26" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="148" t="s">
+      <c r="E26" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="148"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="133"/>
       <c r="Q26" s="25"/>
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
@@ -6031,16 +5978,16 @@
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="148" t="s">
+      <c r="E28" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="148"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="133"/>
       <c r="M28" s="25"/>
       <c r="N28" s="22"/>
       <c r="O28" s="38"/>
@@ -6081,60 +6028,60 @@
       <c r="U29" s="21"/>
     </row>
     <row r="30" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="117"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="114"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="135"/>
       <c r="E30" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114" t="s">
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="116">
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="139"/>
+      <c r="P30" s="136">
         <v>12220359500</v>
       </c>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="115"/>
-      <c r="T30" s="111">
+      <c r="Q30" s="138"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="139"/>
+      <c r="T30" s="141">
         <v>0.22500000000000001</v>
       </c>
-      <c r="U30" s="112"/>
+      <c r="U30" s="138"/>
     </row>
     <row r="31" spans="1:21" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="117"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="114"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="133"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="133"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="112"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="138"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="140"/>
+      <c r="T31" s="142"/>
+      <c r="U31" s="138"/>
     </row>
     <row r="32" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
@@ -6163,19 +6110,19 @@
     </row>
     <row r="33" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
-      <c r="B33" s="127" t="s">
+      <c r="B33" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="127"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="143"/>
       <c r="M33" s="45"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -6302,16 +6249,16 @@
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="148" t="s">
+      <c r="E37" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="148"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="133"/>
       <c r="M37" s="25"/>
       <c r="N37" s="22"/>
       <c r="O37" s="38"/>
@@ -6352,60 +6299,60 @@
       <c r="U38" s="21"/>
     </row>
     <row r="39" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="117"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="114"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="135"/>
       <c r="E39" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114" t="s">
+      <c r="F39" s="135"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
+      <c r="J39" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="114"/>
-      <c r="N39" s="114"/>
-      <c r="O39" s="115"/>
-      <c r="P39" s="116">
+      <c r="K39" s="135"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="135"/>
+      <c r="N39" s="135"/>
+      <c r="O39" s="139"/>
+      <c r="P39" s="136">
         <v>2580659647</v>
       </c>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="114"/>
-      <c r="S39" s="115"/>
-      <c r="T39" s="111">
+      <c r="Q39" s="138"/>
+      <c r="R39" s="135"/>
+      <c r="S39" s="139"/>
+      <c r="T39" s="141">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="U39" s="112"/>
+      <c r="U39" s="138"/>
     </row>
     <row r="40" spans="1:21" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="117"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="114"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="135"/>
       <c r="E40" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="114"/>
-      <c r="O40" s="133"/>
-      <c r="P40" s="131"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="114"/>
-      <c r="S40" s="133"/>
-      <c r="T40" s="135"/>
-      <c r="U40" s="112"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="135"/>
+      <c r="N40" s="135"/>
+      <c r="O40" s="140"/>
+      <c r="P40" s="137"/>
+      <c r="Q40" s="138"/>
+      <c r="R40" s="135"/>
+      <c r="S40" s="140"/>
+      <c r="T40" s="142"/>
+      <c r="U40" s="138"/>
     </row>
     <row r="41" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
@@ -6434,19 +6381,19 @@
     </row>
     <row r="42" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
-      <c r="L42" s="127"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="143"/>
+      <c r="K42" s="143"/>
+      <c r="L42" s="143"/>
       <c r="M42" s="45"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -6458,47 +6405,47 @@
       <c r="U42" s="8"/>
     </row>
     <row r="43" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="147"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="147"/>
-      <c r="L43" s="147"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
-      <c r="O43" s="147"/>
-      <c r="P43" s="147"/>
-      <c r="Q43" s="147"/>
-      <c r="R43" s="147"/>
-      <c r="S43" s="147"/>
-      <c r="T43" s="147"/>
-      <c r="U43" s="147"/>
+      <c r="A43" s="132"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="132"/>
+      <c r="P43" s="132"/>
+      <c r="Q43" s="132"/>
+      <c r="R43" s="132"/>
+      <c r="S43" s="132"/>
+      <c r="T43" s="132"/>
+      <c r="U43" s="132"/>
     </row>
     <row r="44" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="51"/>
-      <c r="E44" s="145" t="s">
+      <c r="E44" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="145"/>
-      <c r="G44" s="145"/>
-      <c r="H44" s="145"/>
-      <c r="I44" s="145"/>
-      <c r="J44" s="145"/>
-      <c r="K44" s="145"/>
-      <c r="L44" s="145"/>
-      <c r="M44" s="145"/>
-      <c r="N44" s="145"/>
-      <c r="O44" s="145"/>
-      <c r="P44" s="145"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="144"/>
+      <c r="L44" s="144"/>
+      <c r="M44" s="144"/>
+      <c r="N44" s="144"/>
+      <c r="O44" s="144"/>
+      <c r="P44" s="144"/>
       <c r="Q44" s="30"/>
       <c r="R44" s="51"/>
       <c r="S44" s="51"/>
@@ -6543,27 +6490,27 @@
       <c r="U45" s="24"/>
     </row>
     <row r="46" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="147"/>
-      <c r="B46" s="147"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="147"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="147"/>
-      <c r="N46" s="147"/>
-      <c r="O46" s="147"/>
-      <c r="P46" s="147"/>
-      <c r="Q46" s="147"/>
-      <c r="R46" s="147"/>
-      <c r="S46" s="147"/>
-      <c r="T46" s="147"/>
-      <c r="U46" s="147"/>
+      <c r="A46" s="132"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="132"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="132"/>
+      <c r="N46" s="132"/>
+      <c r="O46" s="132"/>
+      <c r="P46" s="132"/>
+      <c r="Q46" s="132"/>
+      <c r="R46" s="132"/>
+      <c r="S46" s="132"/>
+      <c r="T46" s="132"/>
+      <c r="U46" s="132"/>
     </row>
     <row r="47" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="51"/>
@@ -7000,27 +6947,27 @@
       <c r="U58" s="24"/>
     </row>
     <row r="59" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="147"/>
-      <c r="B59" s="147"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="147"/>
-      <c r="E59" s="147"/>
-      <c r="F59" s="147"/>
-      <c r="G59" s="147"/>
-      <c r="H59" s="147"/>
-      <c r="I59" s="147"/>
-      <c r="J59" s="147"/>
-      <c r="K59" s="147"/>
-      <c r="L59" s="147"/>
-      <c r="M59" s="147"/>
-      <c r="N59" s="147"/>
-      <c r="O59" s="147"/>
-      <c r="P59" s="147"/>
-      <c r="Q59" s="147"/>
-      <c r="R59" s="147"/>
-      <c r="S59" s="147"/>
-      <c r="T59" s="147"/>
-      <c r="U59" s="147"/>
+      <c r="A59" s="132"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="132"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="132"/>
+      <c r="G59" s="132"/>
+      <c r="H59" s="132"/>
+      <c r="I59" s="132"/>
+      <c r="J59" s="132"/>
+      <c r="K59" s="132"/>
+      <c r="L59" s="132"/>
+      <c r="M59" s="132"/>
+      <c r="N59" s="132"/>
+      <c r="O59" s="132"/>
+      <c r="P59" s="132"/>
+      <c r="Q59" s="132"/>
+      <c r="R59" s="132"/>
+      <c r="S59" s="132"/>
+      <c r="T59" s="132"/>
+      <c r="U59" s="132"/>
     </row>
     <row r="60" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
@@ -7114,27 +7061,27 @@
       <c r="U62" s="12"/>
     </row>
     <row r="63" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="147"/>
-      <c r="B63" s="147"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="147"/>
-      <c r="F63" s="147"/>
-      <c r="G63" s="147"/>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
-      <c r="J63" s="147"/>
-      <c r="K63" s="147"/>
-      <c r="L63" s="147"/>
-      <c r="M63" s="147"/>
-      <c r="N63" s="147"/>
-      <c r="O63" s="147"/>
-      <c r="P63" s="147"/>
-      <c r="Q63" s="147"/>
-      <c r="R63" s="147"/>
-      <c r="S63" s="147"/>
-      <c r="T63" s="147"/>
-      <c r="U63" s="147"/>
+      <c r="A63" s="132"/>
+      <c r="B63" s="132"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="132"/>
+      <c r="E63" s="132"/>
+      <c r="F63" s="132"/>
+      <c r="G63" s="132"/>
+      <c r="H63" s="132"/>
+      <c r="I63" s="132"/>
+      <c r="J63" s="132"/>
+      <c r="K63" s="132"/>
+      <c r="L63" s="132"/>
+      <c r="M63" s="132"/>
+      <c r="N63" s="132"/>
+      <c r="O63" s="132"/>
+      <c r="P63" s="132"/>
+      <c r="Q63" s="132"/>
+      <c r="R63" s="132"/>
+      <c r="S63" s="132"/>
+      <c r="T63" s="132"/>
+      <c r="U63" s="132"/>
     </row>
     <row r="64" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
@@ -7228,27 +7175,27 @@
       <c r="U66" s="8"/>
     </row>
     <row r="67" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="147"/>
-      <c r="B67" s="147"/>
-      <c r="C67" s="147"/>
-      <c r="D67" s="147"/>
-      <c r="E67" s="147"/>
-      <c r="F67" s="147"/>
-      <c r="G67" s="147"/>
-      <c r="H67" s="147"/>
-      <c r="I67" s="147"/>
-      <c r="J67" s="147"/>
-      <c r="K67" s="147"/>
-      <c r="L67" s="147"/>
-      <c r="M67" s="147"/>
-      <c r="N67" s="147"/>
-      <c r="O67" s="147"/>
-      <c r="P67" s="147"/>
-      <c r="Q67" s="147"/>
-      <c r="R67" s="147"/>
-      <c r="S67" s="147"/>
-      <c r="T67" s="147"/>
-      <c r="U67" s="147"/>
+      <c r="A67" s="132"/>
+      <c r="B67" s="132"/>
+      <c r="C67" s="132"/>
+      <c r="D67" s="132"/>
+      <c r="E67" s="132"/>
+      <c r="F67" s="132"/>
+      <c r="G67" s="132"/>
+      <c r="H67" s="132"/>
+      <c r="I67" s="132"/>
+      <c r="J67" s="132"/>
+      <c r="K67" s="132"/>
+      <c r="L67" s="132"/>
+      <c r="M67" s="132"/>
+      <c r="N67" s="132"/>
+      <c r="O67" s="132"/>
+      <c r="P67" s="132"/>
+      <c r="Q67" s="132"/>
+      <c r="R67" s="132"/>
+      <c r="S67" s="132"/>
+      <c r="T67" s="132"/>
+      <c r="U67" s="132"/>
     </row>
     <row r="68" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
@@ -7342,27 +7289,27 @@
       <c r="U70" s="12"/>
     </row>
     <row r="71" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="147"/>
-      <c r="B71" s="147"/>
-      <c r="C71" s="147"/>
-      <c r="D71" s="147"/>
-      <c r="E71" s="147"/>
-      <c r="F71" s="147"/>
-      <c r="G71" s="147"/>
-      <c r="H71" s="147"/>
-      <c r="I71" s="147"/>
-      <c r="J71" s="147"/>
-      <c r="K71" s="147"/>
-      <c r="L71" s="147"/>
-      <c r="M71" s="147"/>
-      <c r="N71" s="147"/>
-      <c r="O71" s="147"/>
-      <c r="P71" s="147"/>
-      <c r="Q71" s="147"/>
-      <c r="R71" s="147"/>
-      <c r="S71" s="147"/>
-      <c r="T71" s="147"/>
-      <c r="U71" s="147"/>
+      <c r="A71" s="132"/>
+      <c r="B71" s="132"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="132"/>
+      <c r="E71" s="132"/>
+      <c r="F71" s="132"/>
+      <c r="G71" s="132"/>
+      <c r="H71" s="132"/>
+      <c r="I71" s="132"/>
+      <c r="J71" s="132"/>
+      <c r="K71" s="132"/>
+      <c r="L71" s="132"/>
+      <c r="M71" s="132"/>
+      <c r="N71" s="132"/>
+      <c r="O71" s="132"/>
+      <c r="P71" s="132"/>
+      <c r="Q71" s="132"/>
+      <c r="R71" s="132"/>
+      <c r="S71" s="132"/>
+      <c r="T71" s="132"/>
+      <c r="U71" s="132"/>
     </row>
     <row r="72" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
@@ -7483,27 +7430,27 @@
       <c r="U75" s="12"/>
     </row>
     <row r="76" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="147"/>
-      <c r="B76" s="147"/>
-      <c r="C76" s="147"/>
-      <c r="D76" s="147"/>
-      <c r="E76" s="147"/>
-      <c r="F76" s="147"/>
-      <c r="G76" s="147"/>
-      <c r="H76" s="147"/>
-      <c r="I76" s="147"/>
-      <c r="J76" s="147"/>
-      <c r="K76" s="147"/>
-      <c r="L76" s="147"/>
-      <c r="M76" s="147"/>
-      <c r="N76" s="147"/>
-      <c r="O76" s="147"/>
-      <c r="P76" s="147"/>
-      <c r="Q76" s="147"/>
-      <c r="R76" s="147"/>
-      <c r="S76" s="147"/>
-      <c r="T76" s="147"/>
-      <c r="U76" s="147"/>
+      <c r="A76" s="132"/>
+      <c r="B76" s="132"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="132"/>
+      <c r="E76" s="132"/>
+      <c r="F76" s="132"/>
+      <c r="G76" s="132"/>
+      <c r="H76" s="132"/>
+      <c r="I76" s="132"/>
+      <c r="J76" s="132"/>
+      <c r="K76" s="132"/>
+      <c r="L76" s="132"/>
+      <c r="M76" s="132"/>
+      <c r="N76" s="132"/>
+      <c r="O76" s="132"/>
+      <c r="P76" s="132"/>
+      <c r="Q76" s="132"/>
+      <c r="R76" s="132"/>
+      <c r="S76" s="132"/>
+      <c r="T76" s="132"/>
+      <c r="U76" s="132"/>
     </row>
     <row r="77" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
@@ -7711,89 +7658,89 @@
       <c r="U93" s="38"/>
     </row>
     <row r="94" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="129" t="s">
+      <c r="A94" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="B94" s="129"/>
-      <c r="C94" s="130"/>
-      <c r="D94" s="130"/>
-      <c r="E94" s="146" t="s">
+      <c r="B94" s="119"/>
+      <c r="C94" s="146"/>
+      <c r="D94" s="146"/>
+      <c r="E94" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="F94" s="130"/>
-      <c r="G94" s="129" t="s">
+      <c r="F94" s="146"/>
+      <c r="G94" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="H94" s="129"/>
-      <c r="I94" s="130"/>
-      <c r="J94" s="130"/>
-      <c r="K94" s="129" t="s">
+      <c r="H94" s="119"/>
+      <c r="I94" s="146"/>
+      <c r="J94" s="146"/>
+      <c r="K94" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="L94" s="129"/>
-      <c r="M94" s="130"/>
-      <c r="N94" s="130"/>
-      <c r="O94" s="129" t="s">
+      <c r="L94" s="119"/>
+      <c r="M94" s="146"/>
+      <c r="N94" s="146"/>
+      <c r="O94" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="P94" s="129"/>
-      <c r="Q94" s="130"/>
-      <c r="R94" s="130"/>
-      <c r="S94" s="129" t="s">
+      <c r="P94" s="119"/>
+      <c r="Q94" s="146"/>
+      <c r="R94" s="146"/>
+      <c r="S94" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="T94" s="129"/>
-      <c r="U94" s="130"/>
+      <c r="T94" s="119"/>
+      <c r="U94" s="146"/>
     </row>
     <row r="95" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="129" t="s">
+      <c r="A95" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="B95" s="129"/>
-      <c r="C95" s="130"/>
-      <c r="D95" s="130"/>
-      <c r="E95" s="146"/>
-      <c r="F95" s="130"/>
-      <c r="G95" s="129"/>
-      <c r="H95" s="129"/>
-      <c r="I95" s="130"/>
-      <c r="J95" s="130"/>
-      <c r="K95" s="129"/>
-      <c r="L95" s="129"/>
-      <c r="M95" s="130"/>
-      <c r="N95" s="130"/>
-      <c r="O95" s="129"/>
-      <c r="P95" s="129"/>
-      <c r="Q95" s="130"/>
-      <c r="R95" s="130"/>
-      <c r="S95" s="129" t="s">
+      <c r="B95" s="119"/>
+      <c r="C95" s="146"/>
+      <c r="D95" s="146"/>
+      <c r="E95" s="121"/>
+      <c r="F95" s="146"/>
+      <c r="G95" s="119"/>
+      <c r="H95" s="119"/>
+      <c r="I95" s="146"/>
+      <c r="J95" s="146"/>
+      <c r="K95" s="119"/>
+      <c r="L95" s="119"/>
+      <c r="M95" s="146"/>
+      <c r="N95" s="146"/>
+      <c r="O95" s="119"/>
+      <c r="P95" s="119"/>
+      <c r="Q95" s="146"/>
+      <c r="R95" s="146"/>
+      <c r="S95" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="T95" s="129"/>
-      <c r="U95" s="130"/>
+      <c r="T95" s="119"/>
+      <c r="U95" s="146"/>
     </row>
     <row r="96" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="144"/>
-      <c r="B96" s="144"/>
-      <c r="C96" s="144"/>
-      <c r="D96" s="144"/>
-      <c r="E96" s="144"/>
-      <c r="F96" s="144"/>
-      <c r="G96" s="144"/>
-      <c r="H96" s="144"/>
-      <c r="I96" s="144"/>
-      <c r="J96" s="144"/>
-      <c r="K96" s="144"/>
-      <c r="L96" s="144"/>
-      <c r="M96" s="144"/>
-      <c r="N96" s="144"/>
-      <c r="O96" s="144"/>
-      <c r="P96" s="144"/>
-      <c r="Q96" s="144"/>
-      <c r="R96" s="144"/>
-      <c r="S96" s="144"/>
-      <c r="T96" s="144"/>
-      <c r="U96" s="144"/>
+      <c r="A96" s="145"/>
+      <c r="B96" s="145"/>
+      <c r="C96" s="145"/>
+      <c r="D96" s="145"/>
+      <c r="E96" s="145"/>
+      <c r="F96" s="145"/>
+      <c r="G96" s="145"/>
+      <c r="H96" s="145"/>
+      <c r="I96" s="145"/>
+      <c r="J96" s="145"/>
+      <c r="K96" s="145"/>
+      <c r="L96" s="145"/>
+      <c r="M96" s="145"/>
+      <c r="N96" s="145"/>
+      <c r="O96" s="145"/>
+      <c r="P96" s="145"/>
+      <c r="Q96" s="145"/>
+      <c r="R96" s="145"/>
+      <c r="S96" s="145"/>
+      <c r="T96" s="145"/>
+      <c r="U96" s="145"/>
     </row>
     <row r="97" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27"/>
@@ -7881,27 +7828,27 @@
       <c r="U99" s="31"/>
     </row>
     <row r="100" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="144"/>
-      <c r="B100" s="144"/>
-      <c r="C100" s="144"/>
-      <c r="D100" s="144"/>
-      <c r="E100" s="144"/>
-      <c r="F100" s="144"/>
-      <c r="G100" s="144"/>
-      <c r="H100" s="144"/>
-      <c r="I100" s="144"/>
-      <c r="J100" s="144"/>
-      <c r="K100" s="144"/>
-      <c r="L100" s="144"/>
-      <c r="M100" s="144"/>
-      <c r="N100" s="144"/>
-      <c r="O100" s="144"/>
-      <c r="P100" s="144"/>
-      <c r="Q100" s="144"/>
-      <c r="R100" s="144"/>
-      <c r="S100" s="144"/>
-      <c r="T100" s="144"/>
-      <c r="U100" s="144"/>
+      <c r="A100" s="145"/>
+      <c r="B100" s="145"/>
+      <c r="C100" s="145"/>
+      <c r="D100" s="145"/>
+      <c r="E100" s="145"/>
+      <c r="F100" s="145"/>
+      <c r="G100" s="145"/>
+      <c r="H100" s="145"/>
+      <c r="I100" s="145"/>
+      <c r="J100" s="145"/>
+      <c r="K100" s="145"/>
+      <c r="L100" s="145"/>
+      <c r="M100" s="145"/>
+      <c r="N100" s="145"/>
+      <c r="O100" s="145"/>
+      <c r="P100" s="145"/>
+      <c r="Q100" s="145"/>
+      <c r="R100" s="145"/>
+      <c r="S100" s="145"/>
+      <c r="T100" s="145"/>
+      <c r="U100" s="145"/>
     </row>
     <row r="101" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="47"/>
@@ -7989,27 +7936,27 @@
       <c r="U103" s="38"/>
     </row>
     <row r="104" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="144"/>
-      <c r="B104" s="144"/>
-      <c r="C104" s="144"/>
-      <c r="D104" s="144"/>
-      <c r="E104" s="144"/>
-      <c r="F104" s="144"/>
-      <c r="G104" s="144"/>
-      <c r="H104" s="144"/>
-      <c r="I104" s="144"/>
-      <c r="J104" s="144"/>
-      <c r="K104" s="144"/>
-      <c r="L104" s="144"/>
-      <c r="M104" s="144"/>
-      <c r="N104" s="144"/>
-      <c r="O104" s="144"/>
-      <c r="P104" s="144"/>
-      <c r="Q104" s="144"/>
-      <c r="R104" s="144"/>
-      <c r="S104" s="144"/>
-      <c r="T104" s="144"/>
-      <c r="U104" s="144"/>
+      <c r="A104" s="145"/>
+      <c r="B104" s="145"/>
+      <c r="C104" s="145"/>
+      <c r="D104" s="145"/>
+      <c r="E104" s="145"/>
+      <c r="F104" s="145"/>
+      <c r="G104" s="145"/>
+      <c r="H104" s="145"/>
+      <c r="I104" s="145"/>
+      <c r="J104" s="145"/>
+      <c r="K104" s="145"/>
+      <c r="L104" s="145"/>
+      <c r="M104" s="145"/>
+      <c r="N104" s="145"/>
+      <c r="O104" s="145"/>
+      <c r="P104" s="145"/>
+      <c r="Q104" s="145"/>
+      <c r="R104" s="145"/>
+      <c r="S104" s="145"/>
+      <c r="T104" s="145"/>
+      <c r="U104" s="145"/>
     </row>
     <row r="105" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27"/>
@@ -8097,27 +8044,27 @@
       <c r="U107" s="31"/>
     </row>
     <row r="108" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="144"/>
-      <c r="B108" s="144"/>
-      <c r="C108" s="144"/>
-      <c r="D108" s="144"/>
-      <c r="E108" s="144"/>
-      <c r="F108" s="144"/>
-      <c r="G108" s="144"/>
-      <c r="H108" s="144"/>
-      <c r="I108" s="144"/>
-      <c r="J108" s="144"/>
-      <c r="K108" s="144"/>
-      <c r="L108" s="144"/>
-      <c r="M108" s="144"/>
-      <c r="N108" s="144"/>
-      <c r="O108" s="144"/>
-      <c r="P108" s="144"/>
-      <c r="Q108" s="144"/>
-      <c r="R108" s="144"/>
-      <c r="S108" s="144"/>
-      <c r="T108" s="144"/>
-      <c r="U108" s="144"/>
+      <c r="A108" s="145"/>
+      <c r="B108" s="145"/>
+      <c r="C108" s="145"/>
+      <c r="D108" s="145"/>
+      <c r="E108" s="145"/>
+      <c r="F108" s="145"/>
+      <c r="G108" s="145"/>
+      <c r="H108" s="145"/>
+      <c r="I108" s="145"/>
+      <c r="J108" s="145"/>
+      <c r="K108" s="145"/>
+      <c r="L108" s="145"/>
+      <c r="M108" s="145"/>
+      <c r="N108" s="145"/>
+      <c r="O108" s="145"/>
+      <c r="P108" s="145"/>
+      <c r="Q108" s="145"/>
+      <c r="R108" s="145"/>
+      <c r="S108" s="145"/>
+      <c r="T108" s="145"/>
+      <c r="U108" s="145"/>
     </row>
     <row r="109" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47"/>
@@ -8255,27 +8202,27 @@
       <c r="U113" s="38"/>
     </row>
     <row r="114" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="144"/>
-      <c r="B114" s="144"/>
-      <c r="C114" s="144"/>
-      <c r="D114" s="144"/>
-      <c r="E114" s="144"/>
-      <c r="F114" s="144"/>
-      <c r="G114" s="144"/>
-      <c r="H114" s="144"/>
-      <c r="I114" s="144"/>
-      <c r="J114" s="144"/>
-      <c r="K114" s="144"/>
-      <c r="L114" s="144"/>
-      <c r="M114" s="144"/>
-      <c r="N114" s="144"/>
-      <c r="O114" s="144"/>
-      <c r="P114" s="144"/>
-      <c r="Q114" s="144"/>
-      <c r="R114" s="144"/>
-      <c r="S114" s="144"/>
-      <c r="T114" s="144"/>
-      <c r="U114" s="144"/>
+      <c r="A114" s="145"/>
+      <c r="B114" s="145"/>
+      <c r="C114" s="145"/>
+      <c r="D114" s="145"/>
+      <c r="E114" s="145"/>
+      <c r="F114" s="145"/>
+      <c r="G114" s="145"/>
+      <c r="H114" s="145"/>
+      <c r="I114" s="145"/>
+      <c r="J114" s="145"/>
+      <c r="K114" s="145"/>
+      <c r="L114" s="145"/>
+      <c r="M114" s="145"/>
+      <c r="N114" s="145"/>
+      <c r="O114" s="145"/>
+      <c r="P114" s="145"/>
+      <c r="Q114" s="145"/>
+      <c r="R114" s="145"/>
+      <c r="S114" s="145"/>
+      <c r="T114" s="145"/>
+      <c r="U114" s="145"/>
     </row>
     <row r="115" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="27"/>
@@ -8350,27 +8297,27 @@
       <c r="U116" s="24"/>
     </row>
     <row r="117" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="144"/>
-      <c r="B117" s="144"/>
-      <c r="C117" s="144"/>
-      <c r="D117" s="144"/>
-      <c r="E117" s="144"/>
-      <c r="F117" s="144"/>
-      <c r="G117" s="144"/>
-      <c r="H117" s="144"/>
-      <c r="I117" s="144"/>
-      <c r="J117" s="144"/>
-      <c r="K117" s="144"/>
-      <c r="L117" s="144"/>
-      <c r="M117" s="144"/>
-      <c r="N117" s="144"/>
-      <c r="O117" s="144"/>
-      <c r="P117" s="144"/>
-      <c r="Q117" s="144"/>
-      <c r="R117" s="144"/>
-      <c r="S117" s="144"/>
-      <c r="T117" s="144"/>
-      <c r="U117" s="144"/>
+      <c r="A117" s="145"/>
+      <c r="B117" s="145"/>
+      <c r="C117" s="145"/>
+      <c r="D117" s="145"/>
+      <c r="E117" s="145"/>
+      <c r="F117" s="145"/>
+      <c r="G117" s="145"/>
+      <c r="H117" s="145"/>
+      <c r="I117" s="145"/>
+      <c r="J117" s="145"/>
+      <c r="K117" s="145"/>
+      <c r="L117" s="145"/>
+      <c r="M117" s="145"/>
+      <c r="N117" s="145"/>
+      <c r="O117" s="145"/>
+      <c r="P117" s="145"/>
+      <c r="Q117" s="145"/>
+      <c r="R117" s="145"/>
+      <c r="S117" s="145"/>
+      <c r="T117" s="145"/>
+      <c r="U117" s="145"/>
     </row>
     <row r="118" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="27"/>
@@ -8508,27 +8455,27 @@
       <c r="U122" s="31"/>
     </row>
     <row r="123" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="144"/>
-      <c r="B123" s="144"/>
-      <c r="C123" s="144"/>
-      <c r="D123" s="144"/>
-      <c r="E123" s="144"/>
-      <c r="F123" s="144"/>
-      <c r="G123" s="144"/>
-      <c r="H123" s="144"/>
-      <c r="I123" s="144"/>
-      <c r="J123" s="144"/>
-      <c r="K123" s="144"/>
-      <c r="L123" s="144"/>
-      <c r="M123" s="144"/>
-      <c r="N123" s="144"/>
-      <c r="O123" s="144"/>
-      <c r="P123" s="144"/>
-      <c r="Q123" s="144"/>
-      <c r="R123" s="144"/>
-      <c r="S123" s="144"/>
-      <c r="T123" s="144"/>
-      <c r="U123" s="144"/>
+      <c r="A123" s="145"/>
+      <c r="B123" s="145"/>
+      <c r="C123" s="145"/>
+      <c r="D123" s="145"/>
+      <c r="E123" s="145"/>
+      <c r="F123" s="145"/>
+      <c r="G123" s="145"/>
+      <c r="H123" s="145"/>
+      <c r="I123" s="145"/>
+      <c r="J123" s="145"/>
+      <c r="K123" s="145"/>
+      <c r="L123" s="145"/>
+      <c r="M123" s="145"/>
+      <c r="N123" s="145"/>
+      <c r="O123" s="145"/>
+      <c r="P123" s="145"/>
+      <c r="Q123" s="145"/>
+      <c r="R123" s="145"/>
+      <c r="S123" s="145"/>
+      <c r="T123" s="145"/>
+      <c r="U123" s="145"/>
     </row>
     <row r="124" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="47"/>
@@ -8616,27 +8563,27 @@
       <c r="U126" s="38"/>
     </row>
     <row r="127" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="144"/>
-      <c r="B127" s="144"/>
-      <c r="C127" s="144"/>
-      <c r="D127" s="144"/>
-      <c r="E127" s="144"/>
-      <c r="F127" s="144"/>
-      <c r="G127" s="144"/>
-      <c r="H127" s="144"/>
-      <c r="I127" s="144"/>
-      <c r="J127" s="144"/>
-      <c r="K127" s="144"/>
-      <c r="L127" s="144"/>
-      <c r="M127" s="144"/>
-      <c r="N127" s="144"/>
-      <c r="O127" s="144"/>
-      <c r="P127" s="144"/>
-      <c r="Q127" s="144"/>
-      <c r="R127" s="144"/>
-      <c r="S127" s="144"/>
-      <c r="T127" s="144"/>
-      <c r="U127" s="144"/>
+      <c r="A127" s="145"/>
+      <c r="B127" s="145"/>
+      <c r="C127" s="145"/>
+      <c r="D127" s="145"/>
+      <c r="E127" s="145"/>
+      <c r="F127" s="145"/>
+      <c r="G127" s="145"/>
+      <c r="H127" s="145"/>
+      <c r="I127" s="145"/>
+      <c r="J127" s="145"/>
+      <c r="K127" s="145"/>
+      <c r="L127" s="145"/>
+      <c r="M127" s="145"/>
+      <c r="N127" s="145"/>
+      <c r="O127" s="145"/>
+      <c r="P127" s="145"/>
+      <c r="Q127" s="145"/>
+      <c r="R127" s="145"/>
+      <c r="S127" s="145"/>
+      <c r="T127" s="145"/>
+      <c r="U127" s="145"/>
     </row>
     <row r="128" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="27"/>
@@ -8749,27 +8696,27 @@
       <c r="U131" s="38"/>
     </row>
     <row r="132" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="144"/>
-      <c r="B132" s="144"/>
-      <c r="C132" s="144"/>
-      <c r="D132" s="144"/>
-      <c r="E132" s="144"/>
-      <c r="F132" s="144"/>
-      <c r="G132" s="144"/>
-      <c r="H132" s="144"/>
-      <c r="I132" s="144"/>
-      <c r="J132" s="144"/>
-      <c r="K132" s="144"/>
-      <c r="L132" s="144"/>
-      <c r="M132" s="144"/>
-      <c r="N132" s="144"/>
-      <c r="O132" s="144"/>
-      <c r="P132" s="144"/>
-      <c r="Q132" s="144"/>
-      <c r="R132" s="144"/>
-      <c r="S132" s="144"/>
-      <c r="T132" s="144"/>
-      <c r="U132" s="144"/>
+      <c r="A132" s="145"/>
+      <c r="B132" s="145"/>
+      <c r="C132" s="145"/>
+      <c r="D132" s="145"/>
+      <c r="E132" s="145"/>
+      <c r="F132" s="145"/>
+      <c r="G132" s="145"/>
+      <c r="H132" s="145"/>
+      <c r="I132" s="145"/>
+      <c r="J132" s="145"/>
+      <c r="K132" s="145"/>
+      <c r="L132" s="145"/>
+      <c r="M132" s="145"/>
+      <c r="N132" s="145"/>
+      <c r="O132" s="145"/>
+      <c r="P132" s="145"/>
+      <c r="Q132" s="145"/>
+      <c r="R132" s="145"/>
+      <c r="S132" s="145"/>
+      <c r="T132" s="145"/>
+      <c r="U132" s="145"/>
     </row>
     <row r="133" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="27"/>
@@ -8857,27 +8804,27 @@
       <c r="U135" s="31"/>
     </row>
     <row r="136" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="144"/>
-      <c r="B136" s="144"/>
-      <c r="C136" s="144"/>
-      <c r="D136" s="144"/>
-      <c r="E136" s="144"/>
-      <c r="F136" s="144"/>
-      <c r="G136" s="144"/>
-      <c r="H136" s="144"/>
-      <c r="I136" s="144"/>
-      <c r="J136" s="144"/>
-      <c r="K136" s="144"/>
-      <c r="L136" s="144"/>
-      <c r="M136" s="144"/>
-      <c r="N136" s="144"/>
-      <c r="O136" s="144"/>
-      <c r="P136" s="144"/>
-      <c r="Q136" s="144"/>
-      <c r="R136" s="144"/>
-      <c r="S136" s="144"/>
-      <c r="T136" s="144"/>
-      <c r="U136" s="144"/>
+      <c r="A136" s="145"/>
+      <c r="B136" s="145"/>
+      <c r="C136" s="145"/>
+      <c r="D136" s="145"/>
+      <c r="E136" s="145"/>
+      <c r="F136" s="145"/>
+      <c r="G136" s="145"/>
+      <c r="H136" s="145"/>
+      <c r="I136" s="145"/>
+      <c r="J136" s="145"/>
+      <c r="K136" s="145"/>
+      <c r="L136" s="145"/>
+      <c r="M136" s="145"/>
+      <c r="N136" s="145"/>
+      <c r="O136" s="145"/>
+      <c r="P136" s="145"/>
+      <c r="Q136" s="145"/>
+      <c r="R136" s="145"/>
+      <c r="S136" s="145"/>
+      <c r="T136" s="145"/>
+      <c r="U136" s="145"/>
     </row>
     <row r="137" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="47"/>
@@ -8965,47 +8912,47 @@
       <c r="U139" s="38"/>
     </row>
     <row r="140" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="144"/>
-      <c r="B140" s="144"/>
-      <c r="C140" s="144"/>
-      <c r="D140" s="144"/>
-      <c r="E140" s="144"/>
-      <c r="F140" s="144"/>
-      <c r="G140" s="144"/>
-      <c r="H140" s="144"/>
-      <c r="I140" s="144"/>
-      <c r="J140" s="144"/>
-      <c r="K140" s="144"/>
-      <c r="L140" s="144"/>
-      <c r="M140" s="144"/>
-      <c r="N140" s="144"/>
-      <c r="O140" s="144"/>
-      <c r="P140" s="144"/>
-      <c r="Q140" s="144"/>
-      <c r="R140" s="144"/>
-      <c r="S140" s="144"/>
-      <c r="T140" s="144"/>
-      <c r="U140" s="144"/>
+      <c r="A140" s="145"/>
+      <c r="B140" s="145"/>
+      <c r="C140" s="145"/>
+      <c r="D140" s="145"/>
+      <c r="E140" s="145"/>
+      <c r="F140" s="145"/>
+      <c r="G140" s="145"/>
+      <c r="H140" s="145"/>
+      <c r="I140" s="145"/>
+      <c r="J140" s="145"/>
+      <c r="K140" s="145"/>
+      <c r="L140" s="145"/>
+      <c r="M140" s="145"/>
+      <c r="N140" s="145"/>
+      <c r="O140" s="145"/>
+      <c r="P140" s="145"/>
+      <c r="Q140" s="145"/>
+      <c r="R140" s="145"/>
+      <c r="S140" s="145"/>
+      <c r="T140" s="145"/>
+      <c r="U140" s="145"/>
     </row>
     <row r="141" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="64"/>
       <c r="B141" s="64"/>
       <c r="C141" s="64"/>
       <c r="D141" s="64"/>
-      <c r="E141" s="145" t="s">
+      <c r="E141" s="144" t="s">
         <v>129</v>
       </c>
-      <c r="F141" s="145"/>
-      <c r="G141" s="145"/>
-      <c r="H141" s="145"/>
-      <c r="I141" s="145"/>
-      <c r="J141" s="145"/>
-      <c r="K141" s="145"/>
-      <c r="L141" s="145"/>
-      <c r="M141" s="145"/>
-      <c r="N141" s="145"/>
-      <c r="O141" s="145"/>
-      <c r="P141" s="145"/>
+      <c r="F141" s="144"/>
+      <c r="G141" s="144"/>
+      <c r="H141" s="144"/>
+      <c r="I141" s="144"/>
+      <c r="J141" s="144"/>
+      <c r="K141" s="144"/>
+      <c r="L141" s="144"/>
+      <c r="M141" s="144"/>
+      <c r="N141" s="144"/>
+      <c r="O141" s="144"/>
+      <c r="P141" s="144"/>
       <c r="Q141" s="30"/>
       <c r="R141" s="64"/>
       <c r="S141" s="64"/>
@@ -9258,47 +9205,47 @@
       <c r="U148" s="24"/>
     </row>
     <row r="149" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="144"/>
-      <c r="B149" s="144"/>
-      <c r="C149" s="144"/>
-      <c r="D149" s="144"/>
-      <c r="E149" s="144"/>
-      <c r="F149" s="144"/>
-      <c r="G149" s="144"/>
-      <c r="H149" s="144"/>
-      <c r="I149" s="144"/>
-      <c r="J149" s="144"/>
-      <c r="K149" s="144"/>
-      <c r="L149" s="144"/>
-      <c r="M149" s="144"/>
-      <c r="N149" s="144"/>
-      <c r="O149" s="144"/>
-      <c r="P149" s="144"/>
-      <c r="Q149" s="144"/>
-      <c r="R149" s="144"/>
-      <c r="S149" s="144"/>
-      <c r="T149" s="144"/>
-      <c r="U149" s="144"/>
+      <c r="A149" s="145"/>
+      <c r="B149" s="145"/>
+      <c r="C149" s="145"/>
+      <c r="D149" s="145"/>
+      <c r="E149" s="145"/>
+      <c r="F149" s="145"/>
+      <c r="G149" s="145"/>
+      <c r="H149" s="145"/>
+      <c r="I149" s="145"/>
+      <c r="J149" s="145"/>
+      <c r="K149" s="145"/>
+      <c r="L149" s="145"/>
+      <c r="M149" s="145"/>
+      <c r="N149" s="145"/>
+      <c r="O149" s="145"/>
+      <c r="P149" s="145"/>
+      <c r="Q149" s="145"/>
+      <c r="R149" s="145"/>
+      <c r="S149" s="145"/>
+      <c r="T149" s="145"/>
+      <c r="U149" s="145"/>
     </row>
     <row r="150" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="64"/>
       <c r="B150" s="64"/>
       <c r="C150" s="64"/>
       <c r="D150" s="64"/>
-      <c r="E150" s="145" t="s">
+      <c r="E150" s="144" t="s">
         <v>137</v>
       </c>
-      <c r="F150" s="145"/>
-      <c r="G150" s="145"/>
-      <c r="H150" s="145"/>
-      <c r="I150" s="145"/>
-      <c r="J150" s="145"/>
-      <c r="K150" s="145"/>
-      <c r="L150" s="145"/>
-      <c r="M150" s="145"/>
-      <c r="N150" s="145"/>
-      <c r="O150" s="145"/>
-      <c r="P150" s="145"/>
+      <c r="F150" s="144"/>
+      <c r="G150" s="144"/>
+      <c r="H150" s="144"/>
+      <c r="I150" s="144"/>
+      <c r="J150" s="144"/>
+      <c r="K150" s="144"/>
+      <c r="L150" s="144"/>
+      <c r="M150" s="144"/>
+      <c r="N150" s="144"/>
+      <c r="O150" s="144"/>
+      <c r="P150" s="144"/>
       <c r="Q150" s="30"/>
       <c r="R150" s="64"/>
       <c r="S150" s="64"/>
@@ -9341,47 +9288,47 @@
       <c r="U151" s="24"/>
     </row>
     <row r="152" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="144"/>
-      <c r="B152" s="144"/>
-      <c r="C152" s="144"/>
-      <c r="D152" s="144"/>
-      <c r="E152" s="144"/>
-      <c r="F152" s="144"/>
-      <c r="G152" s="144"/>
-      <c r="H152" s="144"/>
-      <c r="I152" s="144"/>
-      <c r="J152" s="144"/>
-      <c r="K152" s="144"/>
-      <c r="L152" s="144"/>
-      <c r="M152" s="144"/>
-      <c r="N152" s="144"/>
-      <c r="O152" s="144"/>
-      <c r="P152" s="144"/>
-      <c r="Q152" s="144"/>
-      <c r="R152" s="144"/>
-      <c r="S152" s="144"/>
-      <c r="T152" s="144"/>
-      <c r="U152" s="144"/>
+      <c r="A152" s="145"/>
+      <c r="B152" s="145"/>
+      <c r="C152" s="145"/>
+      <c r="D152" s="145"/>
+      <c r="E152" s="145"/>
+      <c r="F152" s="145"/>
+      <c r="G152" s="145"/>
+      <c r="H152" s="145"/>
+      <c r="I152" s="145"/>
+      <c r="J152" s="145"/>
+      <c r="K152" s="145"/>
+      <c r="L152" s="145"/>
+      <c r="M152" s="145"/>
+      <c r="N152" s="145"/>
+      <c r="O152" s="145"/>
+      <c r="P152" s="145"/>
+      <c r="Q152" s="145"/>
+      <c r="R152" s="145"/>
+      <c r="S152" s="145"/>
+      <c r="T152" s="145"/>
+      <c r="U152" s="145"/>
     </row>
     <row r="153" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="64"/>
       <c r="B153" s="64"/>
       <c r="C153" s="64"/>
       <c r="D153" s="64"/>
-      <c r="E153" s="145" t="s">
+      <c r="E153" s="144" t="s">
         <v>137</v>
       </c>
-      <c r="F153" s="145"/>
-      <c r="G153" s="145"/>
-      <c r="H153" s="145"/>
-      <c r="I153" s="145"/>
-      <c r="J153" s="145"/>
-      <c r="K153" s="145"/>
-      <c r="L153" s="145"/>
-      <c r="M153" s="145"/>
-      <c r="N153" s="145"/>
-      <c r="O153" s="145"/>
-      <c r="P153" s="145"/>
+      <c r="F153" s="144"/>
+      <c r="G153" s="144"/>
+      <c r="H153" s="144"/>
+      <c r="I153" s="144"/>
+      <c r="J153" s="144"/>
+      <c r="K153" s="144"/>
+      <c r="L153" s="144"/>
+      <c r="M153" s="144"/>
+      <c r="N153" s="144"/>
+      <c r="O153" s="144"/>
+      <c r="P153" s="144"/>
       <c r="Q153" s="30"/>
       <c r="R153" s="64"/>
       <c r="S153" s="64"/>
@@ -9426,27 +9373,27 @@
       <c r="U154" s="24"/>
     </row>
     <row r="155" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="144"/>
-      <c r="B155" s="144"/>
-      <c r="C155" s="144"/>
-      <c r="D155" s="144"/>
-      <c r="E155" s="144"/>
-      <c r="F155" s="144"/>
-      <c r="G155" s="144"/>
-      <c r="H155" s="144"/>
-      <c r="I155" s="144"/>
-      <c r="J155" s="144"/>
-      <c r="K155" s="144"/>
-      <c r="L155" s="144"/>
-      <c r="M155" s="144"/>
-      <c r="N155" s="144"/>
-      <c r="O155" s="144"/>
-      <c r="P155" s="144"/>
-      <c r="Q155" s="144"/>
-      <c r="R155" s="144"/>
-      <c r="S155" s="144"/>
-      <c r="T155" s="144"/>
-      <c r="U155" s="144"/>
+      <c r="A155" s="145"/>
+      <c r="B155" s="145"/>
+      <c r="C155" s="145"/>
+      <c r="D155" s="145"/>
+      <c r="E155" s="145"/>
+      <c r="F155" s="145"/>
+      <c r="G155" s="145"/>
+      <c r="H155" s="145"/>
+      <c r="I155" s="145"/>
+      <c r="J155" s="145"/>
+      <c r="K155" s="145"/>
+      <c r="L155" s="145"/>
+      <c r="M155" s="145"/>
+      <c r="N155" s="145"/>
+      <c r="O155" s="145"/>
+      <c r="P155" s="145"/>
+      <c r="Q155" s="145"/>
+      <c r="R155" s="145"/>
+      <c r="S155" s="145"/>
+      <c r="T155" s="145"/>
+      <c r="U155" s="145"/>
     </row>
     <row r="156" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="27"/>
@@ -9534,27 +9481,27 @@
       <c r="U158" s="31"/>
     </row>
     <row r="159" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="144"/>
-      <c r="B159" s="144"/>
-      <c r="C159" s="144"/>
-      <c r="D159" s="144"/>
-      <c r="E159" s="144"/>
-      <c r="F159" s="144"/>
-      <c r="G159" s="144"/>
-      <c r="H159" s="144"/>
-      <c r="I159" s="144"/>
-      <c r="J159" s="144"/>
-      <c r="K159" s="144"/>
-      <c r="L159" s="144"/>
-      <c r="M159" s="144"/>
-      <c r="N159" s="144"/>
-      <c r="O159" s="144"/>
-      <c r="P159" s="144"/>
-      <c r="Q159" s="144"/>
-      <c r="R159" s="144"/>
-      <c r="S159" s="144"/>
-      <c r="T159" s="144"/>
-      <c r="U159" s="144"/>
+      <c r="A159" s="145"/>
+      <c r="B159" s="145"/>
+      <c r="C159" s="145"/>
+      <c r="D159" s="145"/>
+      <c r="E159" s="145"/>
+      <c r="F159" s="145"/>
+      <c r="G159" s="145"/>
+      <c r="H159" s="145"/>
+      <c r="I159" s="145"/>
+      <c r="J159" s="145"/>
+      <c r="K159" s="145"/>
+      <c r="L159" s="145"/>
+      <c r="M159" s="145"/>
+      <c r="N159" s="145"/>
+      <c r="O159" s="145"/>
+      <c r="P159" s="145"/>
+      <c r="Q159" s="145"/>
+      <c r="R159" s="145"/>
+      <c r="S159" s="145"/>
+      <c r="T159" s="145"/>
+      <c r="U159" s="145"/>
     </row>
     <row r="160" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="47"/>
@@ -9642,27 +9589,27 @@
       <c r="U162" s="38"/>
     </row>
     <row r="163" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="144"/>
-      <c r="B163" s="144"/>
-      <c r="C163" s="144"/>
-      <c r="D163" s="144"/>
-      <c r="E163" s="144"/>
-      <c r="F163" s="144"/>
-      <c r="G163" s="144"/>
-      <c r="H163" s="144"/>
-      <c r="I163" s="144"/>
-      <c r="J163" s="144"/>
-      <c r="K163" s="144"/>
-      <c r="L163" s="144"/>
-      <c r="M163" s="144"/>
-      <c r="N163" s="144"/>
-      <c r="O163" s="144"/>
-      <c r="P163" s="144"/>
-      <c r="Q163" s="144"/>
-      <c r="R163" s="144"/>
-      <c r="S163" s="144"/>
-      <c r="T163" s="144"/>
-      <c r="U163" s="144"/>
+      <c r="A163" s="145"/>
+      <c r="B163" s="145"/>
+      <c r="C163" s="145"/>
+      <c r="D163" s="145"/>
+      <c r="E163" s="145"/>
+      <c r="F163" s="145"/>
+      <c r="G163" s="145"/>
+      <c r="H163" s="145"/>
+      <c r="I163" s="145"/>
+      <c r="J163" s="145"/>
+      <c r="K163" s="145"/>
+      <c r="L163" s="145"/>
+      <c r="M163" s="145"/>
+      <c r="N163" s="145"/>
+      <c r="O163" s="145"/>
+      <c r="P163" s="145"/>
+      <c r="Q163" s="145"/>
+      <c r="R163" s="145"/>
+      <c r="S163" s="145"/>
+      <c r="T163" s="145"/>
+      <c r="U163" s="145"/>
     </row>
     <row r="164" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="27"/>
@@ -9825,27 +9772,27 @@
       <c r="U169" s="38"/>
     </row>
     <row r="170" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="144"/>
-      <c r="B170" s="144"/>
-      <c r="C170" s="144"/>
-      <c r="D170" s="144"/>
-      <c r="E170" s="144"/>
-      <c r="F170" s="144"/>
-      <c r="G170" s="144"/>
-      <c r="H170" s="144"/>
-      <c r="I170" s="144"/>
-      <c r="J170" s="144"/>
-      <c r="K170" s="144"/>
-      <c r="L170" s="144"/>
-      <c r="M170" s="144"/>
-      <c r="N170" s="144"/>
-      <c r="O170" s="144"/>
-      <c r="P170" s="144"/>
-      <c r="Q170" s="144"/>
-      <c r="R170" s="144"/>
-      <c r="S170" s="144"/>
-      <c r="T170" s="144"/>
-      <c r="U170" s="144"/>
+      <c r="A170" s="145"/>
+      <c r="B170" s="145"/>
+      <c r="C170" s="145"/>
+      <c r="D170" s="145"/>
+      <c r="E170" s="145"/>
+      <c r="F170" s="145"/>
+      <c r="G170" s="145"/>
+      <c r="H170" s="145"/>
+      <c r="I170" s="145"/>
+      <c r="J170" s="145"/>
+      <c r="K170" s="145"/>
+      <c r="L170" s="145"/>
+      <c r="M170" s="145"/>
+      <c r="N170" s="145"/>
+      <c r="O170" s="145"/>
+      <c r="P170" s="145"/>
+      <c r="Q170" s="145"/>
+      <c r="R170" s="145"/>
+      <c r="S170" s="145"/>
+      <c r="T170" s="145"/>
+      <c r="U170" s="145"/>
     </row>
     <row r="171" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="27"/>
@@ -9933,27 +9880,27 @@
       <c r="U173" s="31"/>
     </row>
     <row r="174" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="144"/>
-      <c r="B174" s="144"/>
-      <c r="C174" s="144"/>
-      <c r="D174" s="144"/>
-      <c r="E174" s="144"/>
-      <c r="F174" s="144"/>
-      <c r="G174" s="144"/>
-      <c r="H174" s="144"/>
-      <c r="I174" s="144"/>
-      <c r="J174" s="144"/>
-      <c r="K174" s="144"/>
-      <c r="L174" s="144"/>
-      <c r="M174" s="144"/>
-      <c r="N174" s="144"/>
-      <c r="O174" s="144"/>
-      <c r="P174" s="144"/>
-      <c r="Q174" s="144"/>
-      <c r="R174" s="144"/>
-      <c r="S174" s="144"/>
-      <c r="T174" s="144"/>
-      <c r="U174" s="144"/>
+      <c r="A174" s="145"/>
+      <c r="B174" s="145"/>
+      <c r="C174" s="145"/>
+      <c r="D174" s="145"/>
+      <c r="E174" s="145"/>
+      <c r="F174" s="145"/>
+      <c r="G174" s="145"/>
+      <c r="H174" s="145"/>
+      <c r="I174" s="145"/>
+      <c r="J174" s="145"/>
+      <c r="K174" s="145"/>
+      <c r="L174" s="145"/>
+      <c r="M174" s="145"/>
+      <c r="N174" s="145"/>
+      <c r="O174" s="145"/>
+      <c r="P174" s="145"/>
+      <c r="Q174" s="145"/>
+      <c r="R174" s="145"/>
+      <c r="S174" s="145"/>
+      <c r="T174" s="145"/>
+      <c r="U174" s="145"/>
     </row>
     <row r="175" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="47"/>
@@ -10028,58 +9975,58 @@
       <c r="U176" s="36"/>
     </row>
     <row r="177" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="143"/>
-      <c r="B177" s="143"/>
-      <c r="C177" s="143"/>
-      <c r="D177" s="139"/>
+      <c r="A177" s="148"/>
+      <c r="B177" s="148"/>
+      <c r="C177" s="148"/>
+      <c r="D177" s="147"/>
       <c r="E177" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F177" s="139"/>
-      <c r="G177" s="139"/>
-      <c r="H177" s="139"/>
-      <c r="I177" s="139"/>
-      <c r="J177" s="139"/>
-      <c r="K177" s="139"/>
-      <c r="L177" s="139"/>
-      <c r="M177" s="139"/>
-      <c r="N177" s="139"/>
-      <c r="O177" s="139"/>
-      <c r="P177" s="141">
+      <c r="F177" s="147"/>
+      <c r="G177" s="147"/>
+      <c r="H177" s="147"/>
+      <c r="I177" s="147"/>
+      <c r="J177" s="147"/>
+      <c r="K177" s="147"/>
+      <c r="L177" s="147"/>
+      <c r="M177" s="147"/>
+      <c r="N177" s="147"/>
+      <c r="O177" s="147"/>
+      <c r="P177" s="154">
         <v>1210209293</v>
       </c>
-      <c r="Q177" s="138"/>
-      <c r="R177" s="139"/>
-      <c r="S177" s="139"/>
-      <c r="T177" s="136">
+      <c r="Q177" s="152"/>
+      <c r="R177" s="147"/>
+      <c r="S177" s="147"/>
+      <c r="T177" s="150">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="U177" s="138"/>
+      <c r="U177" s="152"/>
     </row>
     <row r="178" spans="1:21" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="143"/>
-      <c r="B178" s="143"/>
-      <c r="C178" s="143"/>
-      <c r="D178" s="139"/>
+      <c r="A178" s="148"/>
+      <c r="B178" s="148"/>
+      <c r="C178" s="148"/>
+      <c r="D178" s="147"/>
       <c r="E178" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F178" s="139"/>
-      <c r="G178" s="139"/>
-      <c r="H178" s="139"/>
-      <c r="I178" s="139"/>
-      <c r="J178" s="139"/>
-      <c r="K178" s="139"/>
-      <c r="L178" s="139"/>
-      <c r="M178" s="139"/>
-      <c r="N178" s="139"/>
-      <c r="O178" s="140"/>
-      <c r="P178" s="142"/>
-      <c r="Q178" s="138"/>
-      <c r="R178" s="139"/>
-      <c r="S178" s="140"/>
-      <c r="T178" s="137"/>
-      <c r="U178" s="138"/>
+      <c r="F178" s="147"/>
+      <c r="G178" s="147"/>
+      <c r="H178" s="147"/>
+      <c r="I178" s="147"/>
+      <c r="J178" s="147"/>
+      <c r="K178" s="147"/>
+      <c r="L178" s="147"/>
+      <c r="M178" s="147"/>
+      <c r="N178" s="147"/>
+      <c r="O178" s="153"/>
+      <c r="P178" s="155"/>
+      <c r="Q178" s="152"/>
+      <c r="R178" s="147"/>
+      <c r="S178" s="153"/>
+      <c r="T178" s="151"/>
+      <c r="U178" s="152"/>
     </row>
     <row r="179" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="65"/>
@@ -10105,58 +10052,58 @@
       <c r="U179" s="61"/>
     </row>
     <row r="180" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="134"/>
-      <c r="B180" s="134"/>
-      <c r="C180" s="134"/>
-      <c r="D180" s="132"/>
+      <c r="A180" s="156"/>
+      <c r="B180" s="156"/>
+      <c r="C180" s="156"/>
+      <c r="D180" s="149"/>
       <c r="E180" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="F180" s="132"/>
-      <c r="G180" s="132"/>
-      <c r="H180" s="132"/>
-      <c r="I180" s="132"/>
-      <c r="J180" s="132"/>
-      <c r="K180" s="132"/>
-      <c r="L180" s="132"/>
-      <c r="M180" s="132"/>
-      <c r="N180" s="132"/>
-      <c r="O180" s="115"/>
-      <c r="P180" s="116">
+      <c r="F180" s="149"/>
+      <c r="G180" s="149"/>
+      <c r="H180" s="149"/>
+      <c r="I180" s="149"/>
+      <c r="J180" s="149"/>
+      <c r="K180" s="149"/>
+      <c r="L180" s="149"/>
+      <c r="M180" s="149"/>
+      <c r="N180" s="149"/>
+      <c r="O180" s="139"/>
+      <c r="P180" s="136">
         <v>28225673666</v>
       </c>
-      <c r="Q180" s="112"/>
-      <c r="R180" s="132"/>
-      <c r="S180" s="115"/>
-      <c r="T180" s="111">
+      <c r="Q180" s="138"/>
+      <c r="R180" s="149"/>
+      <c r="S180" s="139"/>
+      <c r="T180" s="141">
         <v>0.51900000000000002</v>
       </c>
-      <c r="U180" s="112"/>
+      <c r="U180" s="138"/>
     </row>
     <row r="181" spans="1:21" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="134"/>
-      <c r="B181" s="134"/>
-      <c r="C181" s="134"/>
-      <c r="D181" s="132"/>
+      <c r="A181" s="156"/>
+      <c r="B181" s="156"/>
+      <c r="C181" s="156"/>
+      <c r="D181" s="149"/>
       <c r="E181" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="F181" s="132"/>
-      <c r="G181" s="132"/>
-      <c r="H181" s="132"/>
-      <c r="I181" s="132"/>
-      <c r="J181" s="132"/>
-      <c r="K181" s="132"/>
-      <c r="L181" s="132"/>
-      <c r="M181" s="132"/>
-      <c r="N181" s="132"/>
-      <c r="O181" s="133"/>
-      <c r="P181" s="131"/>
-      <c r="Q181" s="112"/>
-      <c r="R181" s="132"/>
-      <c r="S181" s="133"/>
-      <c r="T181" s="135"/>
-      <c r="U181" s="112"/>
+      <c r="F181" s="149"/>
+      <c r="G181" s="149"/>
+      <c r="H181" s="149"/>
+      <c r="I181" s="149"/>
+      <c r="J181" s="149"/>
+      <c r="K181" s="149"/>
+      <c r="L181" s="149"/>
+      <c r="M181" s="149"/>
+      <c r="N181" s="149"/>
+      <c r="O181" s="140"/>
+      <c r="P181" s="137"/>
+      <c r="Q181" s="138"/>
+      <c r="R181" s="149"/>
+      <c r="S181" s="140"/>
+      <c r="T181" s="142"/>
+      <c r="U181" s="138"/>
     </row>
     <row r="182" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="65"/>
@@ -10242,109 +10189,109 @@
       <c r="U194" s="8"/>
     </row>
     <row r="195" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="129" t="s">
+      <c r="A195" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="B195" s="129"/>
-      <c r="C195" s="126"/>
-      <c r="D195" s="126"/>
-      <c r="E195" s="130" t="s">
+      <c r="B195" s="119"/>
+      <c r="C195" s="120"/>
+      <c r="D195" s="120"/>
+      <c r="E195" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="F195" s="126"/>
-      <c r="G195" s="129" t="s">
+      <c r="F195" s="120"/>
+      <c r="G195" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="H195" s="129"/>
-      <c r="I195" s="126"/>
-      <c r="J195" s="126" t="s">
+      <c r="H195" s="119"/>
+      <c r="I195" s="120"/>
+      <c r="J195" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="K195" s="129" t="s">
+      <c r="K195" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="L195" s="129"/>
-      <c r="M195" s="126"/>
-      <c r="N195" s="126"/>
-      <c r="O195" s="129" t="s">
+      <c r="L195" s="119"/>
+      <c r="M195" s="120"/>
+      <c r="N195" s="120"/>
+      <c r="O195" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="P195" s="129"/>
-      <c r="Q195" s="126"/>
-      <c r="R195" s="126"/>
-      <c r="S195" s="129" t="s">
+      <c r="P195" s="119"/>
+      <c r="Q195" s="120"/>
+      <c r="R195" s="120"/>
+      <c r="S195" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="T195" s="129"/>
-      <c r="U195" s="126"/>
+      <c r="T195" s="119"/>
+      <c r="U195" s="120"/>
     </row>
     <row r="196" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="129" t="s">
+      <c r="A196" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="B196" s="129"/>
-      <c r="C196" s="126"/>
-      <c r="D196" s="126"/>
-      <c r="E196" s="130"/>
-      <c r="F196" s="126"/>
-      <c r="G196" s="129"/>
-      <c r="H196" s="129"/>
-      <c r="I196" s="126"/>
-      <c r="J196" s="126"/>
-      <c r="K196" s="129"/>
-      <c r="L196" s="129"/>
-      <c r="M196" s="126"/>
-      <c r="N196" s="126"/>
-      <c r="O196" s="129"/>
-      <c r="P196" s="129"/>
-      <c r="Q196" s="126"/>
-      <c r="R196" s="126"/>
-      <c r="S196" s="129" t="s">
+      <c r="B196" s="119"/>
+      <c r="C196" s="120"/>
+      <c r="D196" s="120"/>
+      <c r="E196" s="146"/>
+      <c r="F196" s="120"/>
+      <c r="G196" s="119"/>
+      <c r="H196" s="119"/>
+      <c r="I196" s="120"/>
+      <c r="J196" s="120"/>
+      <c r="K196" s="119"/>
+      <c r="L196" s="119"/>
+      <c r="M196" s="120"/>
+      <c r="N196" s="120"/>
+      <c r="O196" s="119"/>
+      <c r="P196" s="119"/>
+      <c r="Q196" s="120"/>
+      <c r="R196" s="120"/>
+      <c r="S196" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="T196" s="129"/>
-      <c r="U196" s="126"/>
+      <c r="T196" s="119"/>
+      <c r="U196" s="120"/>
     </row>
     <row r="197" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="129" t="s">
+      <c r="A197" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="B197" s="129"/>
-      <c r="C197" s="126"/>
-      <c r="D197" s="126"/>
-      <c r="E197" s="130"/>
-      <c r="F197" s="126"/>
-      <c r="G197" s="129"/>
-      <c r="H197" s="129"/>
-      <c r="I197" s="126"/>
-      <c r="J197" s="126"/>
-      <c r="K197" s="129"/>
-      <c r="L197" s="129"/>
-      <c r="M197" s="126"/>
-      <c r="N197" s="126"/>
-      <c r="O197" s="129"/>
-      <c r="P197" s="129"/>
-      <c r="Q197" s="126"/>
-      <c r="R197" s="126"/>
-      <c r="S197" s="129"/>
-      <c r="T197" s="129"/>
-      <c r="U197" s="126"/>
+      <c r="B197" s="119"/>
+      <c r="C197" s="120"/>
+      <c r="D197" s="120"/>
+      <c r="E197" s="146"/>
+      <c r="F197" s="120"/>
+      <c r="G197" s="119"/>
+      <c r="H197" s="119"/>
+      <c r="I197" s="120"/>
+      <c r="J197" s="120"/>
+      <c r="K197" s="119"/>
+      <c r="L197" s="119"/>
+      <c r="M197" s="120"/>
+      <c r="N197" s="120"/>
+      <c r="O197" s="119"/>
+      <c r="P197" s="119"/>
+      <c r="Q197" s="120"/>
+      <c r="R197" s="120"/>
+      <c r="S197" s="119"/>
+      <c r="T197" s="119"/>
+      <c r="U197" s="120"/>
     </row>
     <row r="198" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="45"/>
-      <c r="B198" s="127" t="s">
+      <c r="B198" s="143" t="s">
         <v>163</v>
       </c>
-      <c r="C198" s="127"/>
-      <c r="D198" s="127"/>
-      <c r="E198" s="127"/>
-      <c r="F198" s="127"/>
-      <c r="G198" s="127"/>
-      <c r="H198" s="127"/>
-      <c r="I198" s="127"/>
-      <c r="J198" s="127"/>
-      <c r="K198" s="127"/>
-      <c r="L198" s="127"/>
+      <c r="C198" s="143"/>
+      <c r="D198" s="143"/>
+      <c r="E198" s="143"/>
+      <c r="F198" s="143"/>
+      <c r="G198" s="143"/>
+      <c r="H198" s="143"/>
+      <c r="I198" s="143"/>
+      <c r="J198" s="143"/>
+      <c r="K198" s="143"/>
+      <c r="L198" s="143"/>
       <c r="M198" s="45"/>
       <c r="N198" s="8"/>
       <c r="O198" s="8"/>
@@ -10782,60 +10729,60 @@
       <c r="U210" s="21"/>
     </row>
     <row r="211" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="128"/>
-      <c r="B211" s="128"/>
-      <c r="C211" s="128"/>
-      <c r="D211" s="121"/>
+      <c r="A211" s="122"/>
+      <c r="B211" s="122"/>
+      <c r="C211" s="122"/>
+      <c r="D211" s="123"/>
       <c r="E211" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="F211" s="121"/>
-      <c r="G211" s="121"/>
-      <c r="H211" s="121"/>
-      <c r="I211" s="121"/>
-      <c r="J211" s="121" t="s">
+      <c r="F211" s="123"/>
+      <c r="G211" s="123"/>
+      <c r="H211" s="123"/>
+      <c r="I211" s="123"/>
+      <c r="J211" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="K211" s="121"/>
-      <c r="L211" s="121"/>
-      <c r="M211" s="121"/>
-      <c r="N211" s="121"/>
-      <c r="O211" s="122"/>
-      <c r="P211" s="118">
+      <c r="K211" s="123"/>
+      <c r="L211" s="123"/>
+      <c r="M211" s="123"/>
+      <c r="N211" s="123"/>
+      <c r="O211" s="126"/>
+      <c r="P211" s="128">
         <v>3854762933</v>
       </c>
-      <c r="Q211" s="120"/>
-      <c r="R211" s="121"/>
-      <c r="S211" s="122"/>
-      <c r="T211" s="124">
+      <c r="Q211" s="124"/>
+      <c r="R211" s="123"/>
+      <c r="S211" s="126"/>
+      <c r="T211" s="130">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="U211" s="120"/>
+      <c r="U211" s="124"/>
     </row>
     <row r="212" spans="1:21" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="128"/>
-      <c r="B212" s="128"/>
-      <c r="C212" s="128"/>
-      <c r="D212" s="121"/>
+      <c r="A212" s="122"/>
+      <c r="B212" s="122"/>
+      <c r="C212" s="122"/>
+      <c r="D212" s="123"/>
       <c r="E212" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="F212" s="121"/>
-      <c r="G212" s="121"/>
-      <c r="H212" s="121"/>
-      <c r="I212" s="121"/>
-      <c r="J212" s="121"/>
-      <c r="K212" s="121"/>
-      <c r="L212" s="121"/>
-      <c r="M212" s="121"/>
-      <c r="N212" s="121"/>
-      <c r="O212" s="123"/>
-      <c r="P212" s="119"/>
-      <c r="Q212" s="120"/>
-      <c r="R212" s="121"/>
-      <c r="S212" s="123"/>
-      <c r="T212" s="125"/>
-      <c r="U212" s="120"/>
+      <c r="F212" s="123"/>
+      <c r="G212" s="123"/>
+      <c r="H212" s="123"/>
+      <c r="I212" s="123"/>
+      <c r="J212" s="123"/>
+      <c r="K212" s="123"/>
+      <c r="L212" s="123"/>
+      <c r="M212" s="123"/>
+      <c r="N212" s="123"/>
+      <c r="O212" s="127"/>
+      <c r="P212" s="129"/>
+      <c r="Q212" s="124"/>
+      <c r="R212" s="123"/>
+      <c r="S212" s="127"/>
+      <c r="T212" s="131"/>
+      <c r="U212" s="124"/>
     </row>
     <row r="213" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="19"/>
@@ -10863,60 +10810,60 @@
       <c r="U213" s="21"/>
     </row>
     <row r="214" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="117"/>
-      <c r="B214" s="117"/>
-      <c r="C214" s="117"/>
-      <c r="D214" s="114"/>
+      <c r="A214" s="134"/>
+      <c r="B214" s="134"/>
+      <c r="C214" s="134"/>
+      <c r="D214" s="135"/>
       <c r="E214" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="F214" s="114"/>
-      <c r="G214" s="114"/>
-      <c r="H214" s="114"/>
-      <c r="I214" s="114"/>
-      <c r="J214" s="114" t="s">
+      <c r="F214" s="135"/>
+      <c r="G214" s="135"/>
+      <c r="H214" s="135"/>
+      <c r="I214" s="135"/>
+      <c r="J214" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="K214" s="114"/>
-      <c r="L214" s="114"/>
-      <c r="M214" s="114"/>
-      <c r="N214" s="114"/>
-      <c r="O214" s="115"/>
-      <c r="P214" s="116">
+      <c r="K214" s="135"/>
+      <c r="L214" s="135"/>
+      <c r="M214" s="135"/>
+      <c r="N214" s="135"/>
+      <c r="O214" s="139"/>
+      <c r="P214" s="136">
         <v>54403051268</v>
       </c>
-      <c r="Q214" s="112"/>
-      <c r="R214" s="114"/>
-      <c r="S214" s="115"/>
-      <c r="T214" s="111">
+      <c r="Q214" s="138"/>
+      <c r="R214" s="135"/>
+      <c r="S214" s="139"/>
+      <c r="T214" s="141">
         <v>1.0009999999999999</v>
       </c>
-      <c r="U214" s="112"/>
+      <c r="U214" s="138"/>
     </row>
     <row r="215" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="117"/>
-      <c r="B215" s="117"/>
-      <c r="C215" s="117"/>
-      <c r="D215" s="114"/>
+      <c r="A215" s="134"/>
+      <c r="B215" s="134"/>
+      <c r="C215" s="134"/>
+      <c r="D215" s="135"/>
       <c r="E215" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="F215" s="114"/>
-      <c r="G215" s="114"/>
-      <c r="H215" s="114"/>
-      <c r="I215" s="114"/>
-      <c r="J215" s="114"/>
-      <c r="K215" s="114"/>
-      <c r="L215" s="114"/>
-      <c r="M215" s="114"/>
-      <c r="N215" s="114"/>
-      <c r="O215" s="115"/>
-      <c r="P215" s="116"/>
-      <c r="Q215" s="112"/>
-      <c r="R215" s="114"/>
-      <c r="S215" s="115"/>
-      <c r="T215" s="111"/>
-      <c r="U215" s="112"/>
+      <c r="F215" s="135"/>
+      <c r="G215" s="135"/>
+      <c r="H215" s="135"/>
+      <c r="I215" s="135"/>
+      <c r="J215" s="135"/>
+      <c r="K215" s="135"/>
+      <c r="L215" s="135"/>
+      <c r="M215" s="135"/>
+      <c r="N215" s="135"/>
+      <c r="O215" s="139"/>
+      <c r="P215" s="136"/>
+      <c r="Q215" s="138"/>
+      <c r="R215" s="135"/>
+      <c r="S215" s="139"/>
+      <c r="T215" s="141"/>
+      <c r="U215" s="138"/>
     </row>
     <row r="216" spans="1:21" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="14"/>
@@ -11043,10 +10990,10 @@
       <c r="E221" s="78"/>
     </row>
     <row r="222" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="113"/>
-      <c r="B222" s="113"/>
-      <c r="C222" s="113"/>
-      <c r="D222" s="113"/>
+      <c r="A222" s="157"/>
+      <c r="B222" s="157"/>
+      <c r="C222" s="157"/>
+      <c r="D222" s="157"/>
       <c r="E222" s="79"/>
     </row>
     <row r="223" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11107,51 +11054,337 @@
     </row>
   </sheetData>
   <mergeCells count="400">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B6:T6"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="T214:T215"/>
+    <mergeCell ref="U214:U215"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="N214:N215"/>
+    <mergeCell ref="O214:O215"/>
+    <mergeCell ref="P214:P215"/>
+    <mergeCell ref="Q214:Q215"/>
+    <mergeCell ref="R214:R215"/>
+    <mergeCell ref="S214:S215"/>
+    <mergeCell ref="H214:H215"/>
+    <mergeCell ref="I214:I215"/>
+    <mergeCell ref="J214:J215"/>
+    <mergeCell ref="K214:K215"/>
+    <mergeCell ref="L214:L215"/>
+    <mergeCell ref="M214:M215"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="G214:G215"/>
+    <mergeCell ref="P211:P212"/>
+    <mergeCell ref="Q211:Q212"/>
+    <mergeCell ref="R211:R212"/>
+    <mergeCell ref="S211:S212"/>
+    <mergeCell ref="T211:T212"/>
+    <mergeCell ref="U211:U212"/>
+    <mergeCell ref="J211:J212"/>
+    <mergeCell ref="K211:K212"/>
+    <mergeCell ref="L211:L212"/>
+    <mergeCell ref="M211:M212"/>
+    <mergeCell ref="N211:N212"/>
+    <mergeCell ref="O211:O212"/>
+    <mergeCell ref="U195:U197"/>
+    <mergeCell ref="B198:L198"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:D212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="G211:G212"/>
+    <mergeCell ref="H211:H212"/>
+    <mergeCell ref="I211:I212"/>
+    <mergeCell ref="N195:N197"/>
+    <mergeCell ref="O195:P197"/>
+    <mergeCell ref="Q195:Q197"/>
+    <mergeCell ref="R195:R197"/>
+    <mergeCell ref="S195:T195"/>
+    <mergeCell ref="S196:T196"/>
+    <mergeCell ref="S197:T197"/>
+    <mergeCell ref="F195:F197"/>
+    <mergeCell ref="G195:H197"/>
+    <mergeCell ref="I195:I197"/>
+    <mergeCell ref="J195:J197"/>
+    <mergeCell ref="K195:L197"/>
+    <mergeCell ref="M195:M197"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C195:C197"/>
+    <mergeCell ref="D195:D197"/>
+    <mergeCell ref="E195:E197"/>
+    <mergeCell ref="P180:P181"/>
+    <mergeCell ref="Q180:Q181"/>
+    <mergeCell ref="R180:R181"/>
+    <mergeCell ref="S180:S181"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="G180:G181"/>
+    <mergeCell ref="H180:H181"/>
+    <mergeCell ref="I180:I181"/>
+    <mergeCell ref="T180:T181"/>
+    <mergeCell ref="U180:U181"/>
+    <mergeCell ref="J180:J181"/>
+    <mergeCell ref="K180:K181"/>
+    <mergeCell ref="L180:L181"/>
+    <mergeCell ref="M180:M181"/>
+    <mergeCell ref="N180:N181"/>
+    <mergeCell ref="O180:O181"/>
+    <mergeCell ref="T177:T178"/>
+    <mergeCell ref="U177:U178"/>
+    <mergeCell ref="N177:N178"/>
+    <mergeCell ref="O177:O178"/>
+    <mergeCell ref="P177:P178"/>
+    <mergeCell ref="Q177:Q178"/>
+    <mergeCell ref="R177:R178"/>
+    <mergeCell ref="S177:S178"/>
+    <mergeCell ref="H177:H178"/>
+    <mergeCell ref="I177:I178"/>
+    <mergeCell ref="J177:J178"/>
+    <mergeCell ref="K177:K178"/>
+    <mergeCell ref="L177:L178"/>
+    <mergeCell ref="M177:M178"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:I174"/>
+    <mergeCell ref="J174:M174"/>
+    <mergeCell ref="N174:Q174"/>
+    <mergeCell ref="R174:U174"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="F170:I170"/>
+    <mergeCell ref="J170:M170"/>
+    <mergeCell ref="N170:Q170"/>
+    <mergeCell ref="R170:U170"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="F163:I163"/>
+    <mergeCell ref="J163:M163"/>
+    <mergeCell ref="N163:Q163"/>
+    <mergeCell ref="R163:U163"/>
+    <mergeCell ref="R155:U155"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="F159:I159"/>
+    <mergeCell ref="J159:M159"/>
+    <mergeCell ref="N159:Q159"/>
+    <mergeCell ref="R159:U159"/>
+    <mergeCell ref="E150:P150"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="D152:Q152"/>
+    <mergeCell ref="R152:U152"/>
+    <mergeCell ref="E153:P153"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:I155"/>
+    <mergeCell ref="J155:M155"/>
+    <mergeCell ref="N155:Q155"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="D140:Q140"/>
+    <mergeCell ref="R140:U140"/>
+    <mergeCell ref="E141:P141"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="D149:Q149"/>
+    <mergeCell ref="R149:U149"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:I136"/>
+    <mergeCell ref="J136:M136"/>
+    <mergeCell ref="N136:Q136"/>
+    <mergeCell ref="R136:U136"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:I132"/>
+    <mergeCell ref="J132:M132"/>
+    <mergeCell ref="N132:Q132"/>
+    <mergeCell ref="R132:U132"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:I127"/>
+    <mergeCell ref="J127:M127"/>
+    <mergeCell ref="N127:Q127"/>
+    <mergeCell ref="R127:U127"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="J123:M123"/>
+    <mergeCell ref="N123:Q123"/>
+    <mergeCell ref="R123:U123"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="J117:M117"/>
+    <mergeCell ref="N117:Q117"/>
+    <mergeCell ref="R117:U117"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="J114:M114"/>
+    <mergeCell ref="N114:Q114"/>
+    <mergeCell ref="R114:U114"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:I108"/>
+    <mergeCell ref="J108:M108"/>
+    <mergeCell ref="N108:Q108"/>
+    <mergeCell ref="R108:U108"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:I104"/>
+    <mergeCell ref="J104:M104"/>
+    <mergeCell ref="N104:Q104"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="N100:Q100"/>
+    <mergeCell ref="R100:U100"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="O94:P95"/>
+    <mergeCell ref="Q94:Q95"/>
+    <mergeCell ref="R94:R95"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="S95:T95"/>
+    <mergeCell ref="U94:U95"/>
+    <mergeCell ref="G94:H95"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K94:L95"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="N94:N95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="N76:Q76"/>
+    <mergeCell ref="R76:U76"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="N71:Q71"/>
+    <mergeCell ref="R71:U71"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="R67:U67"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="N63:Q63"/>
+    <mergeCell ref="R63:U63"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="B42:L42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:Q43"/>
+    <mergeCell ref="R43:U43"/>
+    <mergeCell ref="E44:P44"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="E37:L37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="E26:P26"/>
+    <mergeCell ref="E28:L28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="E23:P23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="E20:P20"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
     <mergeCell ref="T11:T12"/>
     <mergeCell ref="U11:U12"/>
@@ -11176,337 +11409,51 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="E23:P23"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="E20:P20"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="E26:P26"/>
-    <mergeCell ref="E28:L28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="E37:L37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="R59:U59"/>
-    <mergeCell ref="B42:L42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:Q43"/>
-    <mergeCell ref="R43:U43"/>
-    <mergeCell ref="E44:P44"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="N67:Q67"/>
-    <mergeCell ref="R67:U67"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="R63:U63"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="R76:U76"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="N71:Q71"/>
-    <mergeCell ref="R71:U71"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="O94:P95"/>
-    <mergeCell ref="Q94:Q95"/>
-    <mergeCell ref="R94:R95"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="S95:T95"/>
-    <mergeCell ref="U94:U95"/>
-    <mergeCell ref="G94:H95"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="K94:L95"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="N94:N95"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:I104"/>
-    <mergeCell ref="J104:M104"/>
-    <mergeCell ref="N104:Q104"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="N100:Q100"/>
-    <mergeCell ref="R100:U100"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="J114:M114"/>
-    <mergeCell ref="N114:Q114"/>
-    <mergeCell ref="R114:U114"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:I108"/>
-    <mergeCell ref="J108:M108"/>
-    <mergeCell ref="N108:Q108"/>
-    <mergeCell ref="R108:U108"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="J123:M123"/>
-    <mergeCell ref="N123:Q123"/>
-    <mergeCell ref="R123:U123"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="J117:M117"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="R117:U117"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:I132"/>
-    <mergeCell ref="J132:M132"/>
-    <mergeCell ref="N132:Q132"/>
-    <mergeCell ref="R132:U132"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F127:I127"/>
-    <mergeCell ref="J127:M127"/>
-    <mergeCell ref="N127:Q127"/>
-    <mergeCell ref="R127:U127"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="D140:Q140"/>
-    <mergeCell ref="R140:U140"/>
-    <mergeCell ref="E141:P141"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="D149:Q149"/>
-    <mergeCell ref="R149:U149"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:I136"/>
-    <mergeCell ref="J136:M136"/>
-    <mergeCell ref="N136:Q136"/>
-    <mergeCell ref="R136:U136"/>
-    <mergeCell ref="E150:P150"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="D152:Q152"/>
-    <mergeCell ref="R152:U152"/>
-    <mergeCell ref="E153:P153"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:I155"/>
-    <mergeCell ref="J155:M155"/>
-    <mergeCell ref="N155:Q155"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="F163:I163"/>
-    <mergeCell ref="J163:M163"/>
-    <mergeCell ref="N163:Q163"/>
-    <mergeCell ref="R163:U163"/>
-    <mergeCell ref="R155:U155"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="F159:I159"/>
-    <mergeCell ref="J159:M159"/>
-    <mergeCell ref="N159:Q159"/>
-    <mergeCell ref="R159:U159"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:I174"/>
-    <mergeCell ref="J174:M174"/>
-    <mergeCell ref="N174:Q174"/>
-    <mergeCell ref="R174:U174"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="F170:I170"/>
-    <mergeCell ref="J170:M170"/>
-    <mergeCell ref="N170:Q170"/>
-    <mergeCell ref="R170:U170"/>
-    <mergeCell ref="H177:H178"/>
-    <mergeCell ref="I177:I178"/>
-    <mergeCell ref="J177:J178"/>
-    <mergeCell ref="K177:K178"/>
-    <mergeCell ref="L177:L178"/>
-    <mergeCell ref="M177:M178"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="T180:T181"/>
-    <mergeCell ref="U180:U181"/>
-    <mergeCell ref="J180:J181"/>
-    <mergeCell ref="K180:K181"/>
-    <mergeCell ref="L180:L181"/>
-    <mergeCell ref="M180:M181"/>
-    <mergeCell ref="N180:N181"/>
-    <mergeCell ref="O180:O181"/>
-    <mergeCell ref="T177:T178"/>
-    <mergeCell ref="U177:U178"/>
-    <mergeCell ref="N177:N178"/>
-    <mergeCell ref="O177:O178"/>
-    <mergeCell ref="P177:P178"/>
-    <mergeCell ref="Q177:Q178"/>
-    <mergeCell ref="R177:R178"/>
-    <mergeCell ref="S177:S178"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C195:C197"/>
-    <mergeCell ref="D195:D197"/>
-    <mergeCell ref="E195:E197"/>
-    <mergeCell ref="P180:P181"/>
-    <mergeCell ref="Q180:Q181"/>
-    <mergeCell ref="R180:R181"/>
-    <mergeCell ref="S180:S181"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="F180:F181"/>
-    <mergeCell ref="G180:G181"/>
-    <mergeCell ref="H180:H181"/>
-    <mergeCell ref="I180:I181"/>
-    <mergeCell ref="U195:U197"/>
-    <mergeCell ref="B198:L198"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="D211:D212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="G211:G212"/>
-    <mergeCell ref="H211:H212"/>
-    <mergeCell ref="I211:I212"/>
-    <mergeCell ref="N195:N197"/>
-    <mergeCell ref="O195:P197"/>
-    <mergeCell ref="Q195:Q197"/>
-    <mergeCell ref="R195:R197"/>
-    <mergeCell ref="S195:T195"/>
-    <mergeCell ref="S196:T196"/>
-    <mergeCell ref="S197:T197"/>
-    <mergeCell ref="F195:F197"/>
-    <mergeCell ref="G195:H197"/>
-    <mergeCell ref="I195:I197"/>
-    <mergeCell ref="J195:J197"/>
-    <mergeCell ref="K195:L197"/>
-    <mergeCell ref="M195:M197"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="P211:P212"/>
-    <mergeCell ref="Q211:Q212"/>
-    <mergeCell ref="R211:R212"/>
-    <mergeCell ref="S211:S212"/>
-    <mergeCell ref="T211:T212"/>
-    <mergeCell ref="U211:U212"/>
-    <mergeCell ref="J211:J212"/>
-    <mergeCell ref="K211:K212"/>
-    <mergeCell ref="L211:L212"/>
-    <mergeCell ref="M211:M212"/>
-    <mergeCell ref="N211:N212"/>
-    <mergeCell ref="O211:O212"/>
-    <mergeCell ref="T214:T215"/>
-    <mergeCell ref="U214:U215"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="N214:N215"/>
-    <mergeCell ref="O214:O215"/>
-    <mergeCell ref="P214:P215"/>
-    <mergeCell ref="Q214:Q215"/>
-    <mergeCell ref="R214:R215"/>
-    <mergeCell ref="S214:S215"/>
-    <mergeCell ref="H214:H215"/>
-    <mergeCell ref="I214:I215"/>
-    <mergeCell ref="J214:J215"/>
-    <mergeCell ref="K214:K215"/>
-    <mergeCell ref="L214:L215"/>
-    <mergeCell ref="M214:M215"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="G214:G215"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B6:T6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11516,7 +11463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K377"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11562,31 +11511,24 @@
         <v>187</v>
       </c>
       <c r="B2" s="95">
-        <f>SUM(B14:B102)</f>
         <v>0.44320475999999992</v>
       </c>
       <c r="C2" s="95">
-        <f>SUM(E14:E102)</f>
         <v>0.25537366999999994</v>
       </c>
       <c r="D2" s="95">
-        <f>SUM(K14:K102)</f>
         <v>0.21815098999999999</v>
       </c>
       <c r="E2" s="95">
-        <f>SUM(H14:H102)</f>
         <v>0.33871932999999993</v>
       </c>
       <c r="H2" s="95">
-        <f>$B2-C2</f>
         <v>0.18783108999999998</v>
       </c>
       <c r="I2" s="95">
-        <f>$B2-D2</f>
         <v>0.22505376999999993</v>
       </c>
       <c r="J2" s="95">
-        <f>B2-E2</f>
         <v>0.10448542999999999</v>
       </c>
     </row>
@@ -11595,34 +11537,27 @@
         <v>2010</v>
       </c>
       <c r="B3" s="98">
-        <f>SUM(B14:B21)</f>
         <v>0.11749864</v>
       </c>
       <c r="C3" s="98">
-        <f>SUM(E14:E21)</f>
         <v>3.5727849999999992E-2</v>
       </c>
       <c r="D3" s="98">
-        <f>SUM(K14:K21)</f>
         <v>3.1224659999999994E-2</v>
       </c>
       <c r="E3" s="98">
-        <f>SUM(H14:H21)</f>
         <v>6.8958789999999992E-2</v>
       </c>
       <c r="F3" s="93" t="s">
         <v>207</v>
       </c>
       <c r="H3" s="95">
-        <f t="shared" ref="H3:H8" si="0">$B3-C3</f>
         <v>8.177079000000001E-2</v>
       </c>
       <c r="I3" s="95">
-        <f t="shared" ref="I3:I10" si="1">$B3-D3</f>
         <v>8.627398E-2</v>
       </c>
       <c r="J3" s="95">
-        <f>B3-E3</f>
         <v>4.8539850000000009E-2</v>
       </c>
     </row>
@@ -11631,31 +11566,24 @@
         <v>2011</v>
       </c>
       <c r="B4" s="95">
-        <f>SUM(B22:B33)</f>
         <v>9.1445709999999986E-2</v>
       </c>
       <c r="C4" s="95">
-        <f>SUM(E22:E33)</f>
         <v>7.5984269999999993E-2</v>
       </c>
       <c r="D4" s="95">
-        <f>SUM(K22:K33)</f>
         <v>6.0722629999999993E-2</v>
       </c>
       <c r="E4" s="95">
-        <f>SUM(H22:H33)</f>
         <v>5.2236339999999999E-2</v>
       </c>
       <c r="H4" s="95">
-        <f t="shared" si="0"/>
         <v>1.5461439999999993E-2</v>
       </c>
       <c r="I4" s="95">
-        <f t="shared" si="1"/>
         <v>3.0723079999999993E-2</v>
       </c>
       <c r="J4" s="95">
-        <f>B4-E4</f>
         <v>3.9209369999999986E-2</v>
       </c>
     </row>
@@ -11664,31 +11592,24 @@
         <v>2012</v>
       </c>
       <c r="B5" s="95">
-        <f>SUM(B34:B45)</f>
         <v>8.8060349999999996E-2</v>
       </c>
       <c r="C5" s="95">
-        <f>SUM(E34:E45)</f>
         <v>4.1542490000000008E-2</v>
       </c>
       <c r="D5" s="95">
-        <f>SUM(K34:K45)</f>
         <v>2.5668440000000001E-2</v>
       </c>
       <c r="E5" s="95">
-        <f>SUM(H34:H45)</f>
         <v>7.9294359999999994E-2</v>
       </c>
       <c r="H5" s="95">
-        <f t="shared" si="0"/>
         <v>4.6517859999999987E-2</v>
       </c>
       <c r="I5" s="95">
-        <f t="shared" si="1"/>
         <v>6.2391909999999995E-2</v>
       </c>
       <c r="J5" s="95">
-        <f>B5-E5</f>
         <v>8.7659900000000013E-3</v>
       </c>
     </row>
@@ -11697,31 +11618,24 @@
         <v>2013</v>
       </c>
       <c r="B6" s="95">
-        <f>SUM(B46:B57)</f>
         <v>5.7957000000000234E-4</v>
       </c>
       <c r="C6" s="95">
-        <f>SUM(E46:E57)</f>
         <v>-1.9962999999999998E-2</v>
       </c>
       <c r="D6" s="95">
-        <f>SUM(K46:K57)</f>
         <v>-1.3889169999999999E-2</v>
       </c>
       <c r="E6" s="95">
-        <f>SUM(H46:H57)</f>
         <v>-4.6149299999999989E-3</v>
       </c>
       <c r="H6" s="95">
-        <f t="shared" si="0"/>
         <v>2.054257E-2</v>
       </c>
       <c r="I6" s="95">
-        <f t="shared" si="1"/>
         <v>1.4468740000000001E-2</v>
       </c>
       <c r="J6" s="95">
-        <f>B6-E6</f>
         <v>5.1945000000000012E-3</v>
       </c>
     </row>
@@ -11730,31 +11644,24 @@
         <v>2014</v>
       </c>
       <c r="B7" s="95">
-        <f>SUM(B58:B69)</f>
         <v>6.5603729999999999E-2</v>
       </c>
       <c r="C7" s="95">
-        <f>SUM(E58:E69)</f>
         <v>5.8332250000000002E-2</v>
       </c>
       <c r="D7" s="95">
-        <f>SUM(K58:K69)</f>
         <v>5.9418730000000003E-2</v>
       </c>
       <c r="E7" s="95">
-        <f>SUM(H58:H69)</f>
         <v>7.5965760000000007E-2</v>
       </c>
       <c r="H7" s="95">
-        <f t="shared" si="0"/>
         <v>7.2714799999999968E-3</v>
       </c>
       <c r="I7" s="95">
-        <f t="shared" si="1"/>
         <v>6.1849999999999961E-3</v>
       </c>
       <c r="J7" s="95">
-        <f>B7-E7</f>
         <v>-1.0362030000000008E-2</v>
       </c>
     </row>
@@ -11763,31 +11670,24 @@
         <v>2015</v>
       </c>
       <c r="B8" s="95">
-        <f>SUM(B70:B81)</f>
         <v>2.3138580000000006E-2</v>
       </c>
       <c r="C8" s="95">
-        <f>SUM(E70:E81)</f>
         <v>5.8818699999999982E-3</v>
       </c>
       <c r="D8" s="95">
-        <f>SUM(K70:K81)</f>
         <v>1.5091539999999997E-2</v>
       </c>
       <c r="E8" s="95">
-        <f>SUM(H70:H81)</f>
         <v>1.4957210000000004E-2</v>
       </c>
       <c r="H8" s="95">
-        <f t="shared" si="0"/>
         <v>1.7256710000000008E-2</v>
       </c>
       <c r="I8" s="95">
-        <f t="shared" si="1"/>
         <v>8.0470400000000088E-3</v>
       </c>
       <c r="J8" s="95">
-        <f>B8-E8</f>
         <v>8.181370000000002E-3</v>
       </c>
     </row>
@@ -11796,31 +11696,24 @@
         <v>2016</v>
       </c>
       <c r="B9" s="95">
-        <f>SUM(B82:B93)</f>
         <v>2.1756970000000011E-2</v>
       </c>
       <c r="C9" s="95">
-        <f>SUM(E82:E93)</f>
         <v>2.6790939999999999E-2</v>
       </c>
       <c r="D9" s="95">
-        <f>SUM(K82:K93)</f>
         <v>1.6883960000000003E-2</v>
       </c>
       <c r="E9" s="95">
-        <f>SUM(H82:H93)</f>
         <v>2.6314609999999992E-2</v>
       </c>
       <c r="H9" s="95">
-        <f>$B9-C9</f>
         <v>-5.0339699999999883E-3</v>
       </c>
       <c r="I9" s="95">
-        <f t="shared" si="1"/>
         <v>4.8730100000000075E-3</v>
       </c>
       <c r="J9" s="95">
-        <f>B9-E9</f>
         <v>-4.5576399999999809E-3</v>
       </c>
     </row>
@@ -11829,31 +11722,24 @@
         <v>188</v>
       </c>
       <c r="B10" s="95">
-        <f>SUM(B94:B102)</f>
         <v>3.5121210000000007E-2</v>
       </c>
       <c r="C10" s="95">
-        <f>SUM(E94:E102)</f>
         <v>3.1076999999999997E-2</v>
       </c>
       <c r="D10" s="95">
-        <f>SUM(K94:K102)</f>
         <v>2.3030200000000001E-2</v>
       </c>
       <c r="E10" s="95">
-        <f>SUM(H94:H102)</f>
         <v>2.5607189999999998E-2</v>
       </c>
       <c r="H10" s="95">
-        <f>$B10-C10</f>
         <v>4.0442100000000099E-3</v>
       </c>
       <c r="I10" s="95">
-        <f t="shared" si="1"/>
         <v>1.2091010000000006E-2</v>
       </c>
       <c r="J10" s="95">
-        <f>B10-E10</f>
         <v>9.5140200000000084E-3</v>
       </c>
     </row>
@@ -11904,7 +11790,7 @@
       <c r="H14" s="93">
         <v>1.239056E-2</v>
       </c>
-      <c r="I14" s="150"/>
+      <c r="I14" s="103"/>
       <c r="J14" s="90">
         <v>40326</v>
       </c>
@@ -11931,7 +11817,7 @@
       <c r="H15" s="93">
         <v>1.311758E-2</v>
       </c>
-      <c r="I15" s="150"/>
+      <c r="I15" s="103"/>
       <c r="J15" s="90">
         <v>40359</v>
       </c>
@@ -11958,7 +11844,7 @@
       <c r="H16" s="93">
         <v>1.13054E-2</v>
       </c>
-      <c r="I16" s="150"/>
+      <c r="I16" s="103"/>
       <c r="J16" s="90">
         <v>40389</v>
       </c>
@@ -11985,7 +11871,7 @@
       <c r="H17" s="93">
         <v>1.1942639999999999E-2</v>
       </c>
-      <c r="I17" s="150"/>
+      <c r="I17" s="103"/>
       <c r="J17" s="90">
         <v>40421</v>
       </c>
@@ -12012,7 +11898,7 @@
       <c r="H18" s="93">
         <v>3.5642E-3</v>
       </c>
-      <c r="I18" s="150"/>
+      <c r="I18" s="103"/>
       <c r="J18" s="90">
         <v>40451</v>
       </c>
@@ -12039,7 +11925,7 @@
       <c r="H19" s="93">
         <v>1.77054E-2</v>
       </c>
-      <c r="I19" s="150"/>
+      <c r="I19" s="103"/>
       <c r="J19" s="90">
         <v>40480</v>
       </c>
@@ -12066,7 +11952,7 @@
       <c r="H20" s="93">
         <v>1.63664E-3</v>
       </c>
-      <c r="I20" s="150"/>
+      <c r="I20" s="103"/>
       <c r="J20" s="90">
         <v>40512</v>
       </c>
@@ -12093,7 +11979,7 @@
       <c r="H21" s="93">
         <v>-2.7036300000000003E-3</v>
       </c>
-      <c r="I21" s="150"/>
+      <c r="I21" s="103"/>
       <c r="J21" s="90">
         <v>40543</v>
       </c>
@@ -12120,7 +12006,7 @@
       <c r="H22" s="93">
         <v>3.8221500000000003E-3</v>
       </c>
-      <c r="I22" s="150"/>
+      <c r="I22" s="103"/>
       <c r="J22" s="90">
         <v>40574</v>
       </c>
@@ -12147,7 +12033,7 @@
       <c r="H23" s="93">
         <v>2.29196E-3</v>
       </c>
-      <c r="I23" s="150"/>
+      <c r="I23" s="103"/>
       <c r="J23" s="90">
         <v>40602</v>
       </c>
@@ -12174,7 +12060,7 @@
       <c r="H24" s="93">
         <v>2.8960399999999999E-3</v>
       </c>
-      <c r="I24" s="150"/>
+      <c r="I24" s="103"/>
       <c r="J24" s="90">
         <v>40633</v>
       </c>
@@ -12201,7 +12087,7 @@
       <c r="H25" s="93">
         <v>1.2739139999999999E-2</v>
       </c>
-      <c r="I25" s="150"/>
+      <c r="I25" s="103"/>
       <c r="J25" s="90">
         <v>40662</v>
       </c>
@@ -12228,7 +12114,7 @@
       <c r="H26" s="93">
         <v>8.2060599999999994E-3</v>
       </c>
-      <c r="I26" s="150"/>
+      <c r="I26" s="103"/>
       <c r="J26" s="90">
         <v>40694</v>
       </c>
@@ -12255,7 +12141,7 @@
       <c r="H27" s="93">
         <v>-3.1264500000000002E-3</v>
       </c>
-      <c r="I27" s="150"/>
+      <c r="I27" s="103"/>
       <c r="J27" s="90">
         <v>40724</v>
       </c>
@@ -12282,7 +12168,7 @@
       <c r="H28" s="93">
         <v>6.9918699999999999E-3</v>
       </c>
-      <c r="I28" s="150"/>
+      <c r="I28" s="103"/>
       <c r="J28" s="90">
         <v>40753</v>
       </c>
@@ -12309,7 +12195,7 @@
       <c r="H29" s="93">
         <v>1.1016049999999999E-2</v>
       </c>
-      <c r="I29" s="150"/>
+      <c r="I29" s="103"/>
       <c r="J29" s="90">
         <v>40786</v>
       </c>
@@ -12336,7 +12222,7 @@
       <c r="H30" s="93">
         <v>-4.5134E-4</v>
       </c>
-      <c r="I30" s="150"/>
+      <c r="I30" s="103"/>
       <c r="J30" s="90">
         <v>40816</v>
       </c>
@@ -12363,7 +12249,7 @@
       <c r="H31" s="93">
         <v>-8.6804999999999998E-4</v>
       </c>
-      <c r="I31" s="150"/>
+      <c r="I31" s="103"/>
       <c r="J31" s="90">
         <v>40847</v>
       </c>
@@ -12390,7 +12276,7 @@
       <c r="H32" s="93">
         <v>5.3359999999999997E-5</v>
       </c>
-      <c r="I32" s="150"/>
+      <c r="I32" s="103"/>
       <c r="J32" s="90">
         <v>40877</v>
       </c>
@@ -12417,7 +12303,7 @@
       <c r="H33" s="93">
         <v>8.6655499999999993E-3</v>
       </c>
-      <c r="I33" s="150"/>
+      <c r="I33" s="103"/>
       <c r="J33" s="90">
         <v>40907</v>
       </c>
@@ -12444,7 +12330,7 @@
       <c r="H34" s="93">
         <v>1.447184E-2</v>
       </c>
-      <c r="I34" s="150"/>
+      <c r="I34" s="103"/>
       <c r="J34" s="90">
         <v>40939</v>
       </c>
@@ -12471,7 +12357,7 @@
       <c r="H35" s="93">
         <v>1.0699229999999999E-2</v>
       </c>
-      <c r="I35" s="150"/>
+      <c r="I35" s="103"/>
       <c r="J35" s="90">
         <v>40968</v>
       </c>
@@ -12498,7 +12384,7 @@
       <c r="H36" s="93">
         <v>5.6283899999999996E-3</v>
       </c>
-      <c r="I36" s="150"/>
+      <c r="I36" s="103"/>
       <c r="J36" s="90">
         <v>40998</v>
       </c>
@@ -12525,7 +12411,7 @@
       <c r="H37" s="93">
         <v>1.1313210000000001E-2</v>
       </c>
-      <c r="I37" s="150"/>
+      <c r="I37" s="103"/>
       <c r="J37" s="90">
         <v>41029</v>
       </c>
@@ -12552,7 +12438,7 @@
       <c r="H38" s="93">
         <v>2.0811099999999997E-3</v>
       </c>
-      <c r="I38" s="150"/>
+      <c r="I38" s="103"/>
       <c r="J38" s="90">
         <v>41060</v>
       </c>
@@ -12579,7 +12465,7 @@
       <c r="H39" s="93">
         <v>7.1497900000000005E-3</v>
       </c>
-      <c r="I39" s="150"/>
+      <c r="I39" s="103"/>
       <c r="J39" s="90">
         <v>41089</v>
       </c>
@@ -12606,7 +12492,7 @@
       <c r="H40" s="93">
         <v>1.0743959999999999E-2</v>
       </c>
-      <c r="I40" s="150"/>
+      <c r="I40" s="103"/>
       <c r="J40" s="90">
         <v>41121</v>
       </c>
@@ -12633,7 +12519,7 @@
       <c r="H41" s="93">
         <v>5.6664699999999998E-3</v>
       </c>
-      <c r="I41" s="150"/>
+      <c r="I41" s="103"/>
       <c r="J41" s="90">
         <v>41152</v>
       </c>
@@ -12660,7 +12546,7 @@
       <c r="H42" s="93">
         <v>1.03322E-2</v>
       </c>
-      <c r="I42" s="150"/>
+      <c r="I42" s="103"/>
       <c r="J42" s="90">
         <v>41180</v>
       </c>
@@ -12687,7 +12573,7 @@
       <c r="H43" s="93">
         <v>-1.8422000000000002E-4</v>
       </c>
-      <c r="I43" s="150"/>
+      <c r="I43" s="103"/>
       <c r="J43" s="90">
         <v>41213</v>
       </c>
@@ -12714,7 +12600,7 @@
       <c r="H44" s="93">
         <v>-2.0697199999999997E-3</v>
       </c>
-      <c r="I44" s="150"/>
+      <c r="I44" s="103"/>
       <c r="J44" s="90">
         <v>41243</v>
       </c>
@@ -12741,7 +12627,7 @@
       <c r="H45" s="93">
         <v>3.4621000000000001E-3</v>
       </c>
-      <c r="I45" s="150"/>
+      <c r="I45" s="103"/>
       <c r="J45" s="90">
         <v>41274</v>
       </c>
@@ -12768,7 +12654,7 @@
       <c r="H46" s="93">
         <v>1.95503E-3</v>
       </c>
-      <c r="I46" s="150"/>
+      <c r="I46" s="103"/>
       <c r="J46" s="90">
         <v>41305</v>
       </c>
@@ -12795,7 +12681,7 @@
       <c r="H47" s="93">
         <v>4.2983700000000001E-3</v>
       </c>
-      <c r="I47" s="150"/>
+      <c r="I47" s="103"/>
       <c r="J47" s="90">
         <v>41333</v>
       </c>
@@ -12822,7 +12708,7 @@
       <c r="H48" s="93">
         <v>-6.3422999999999995E-4</v>
       </c>
-      <c r="I48" s="150"/>
+      <c r="I48" s="103"/>
       <c r="J48" s="90">
         <v>41361</v>
       </c>
@@ -12849,7 +12735,7 @@
       <c r="H49" s="93">
         <v>9.9044000000000007E-3</v>
       </c>
-      <c r="I49" s="150"/>
+      <c r="I49" s="103"/>
       <c r="J49" s="90">
         <v>41394</v>
       </c>
@@ -12876,7 +12762,7 @@
       <c r="H50" s="93">
         <v>-1.507622E-2</v>
       </c>
-      <c r="I50" s="150"/>
+      <c r="I50" s="103"/>
       <c r="J50" s="90">
         <v>41425</v>
       </c>
@@ -12903,7 +12789,7 @@
       <c r="H51" s="93">
         <v>-1.6319609999999998E-2</v>
       </c>
-      <c r="I51" s="150"/>
+      <c r="I51" s="103"/>
       <c r="J51" s="90">
         <v>41453</v>
       </c>
@@ -12930,7 +12816,7 @@
       <c r="H52" s="93">
         <v>-1.5120800000000001E-3</v>
       </c>
-      <c r="I52" s="150"/>
+      <c r="I52" s="103"/>
       <c r="J52" s="90">
         <v>41486</v>
       </c>
@@ -12957,7 +12843,7 @@
       <c r="H53" s="93">
         <v>-1.1470199999999999E-3</v>
       </c>
-      <c r="I53" s="150"/>
+      <c r="I53" s="103"/>
       <c r="J53" s="90">
         <v>41516</v>
       </c>
@@ -12984,7 +12870,7 @@
       <c r="H54" s="93">
         <v>1.5939099999999998E-2</v>
       </c>
-      <c r="I54" s="150"/>
+      <c r="I54" s="103"/>
       <c r="J54" s="90">
         <v>41547</v>
       </c>
@@ -13011,7 +12897,7 @@
       <c r="H55" s="93">
         <v>1.041916E-2</v>
       </c>
-      <c r="I55" s="150"/>
+      <c r="I55" s="103"/>
       <c r="J55" s="90">
         <v>41578</v>
       </c>
@@ -13038,7 +12924,7 @@
       <c r="H56" s="93">
         <v>-5.7346899999999998E-3</v>
       </c>
-      <c r="I56" s="150"/>
+      <c r="I56" s="103"/>
       <c r="J56" s="90">
         <v>41607</v>
       </c>
@@ -13065,7 +12951,7 @@
       <c r="H57" s="93">
         <v>-6.7071400000000003E-3</v>
       </c>
-      <c r="I57" s="150"/>
+      <c r="I57" s="103"/>
       <c r="J57" s="90">
         <v>41639</v>
       </c>
@@ -13092,7 +12978,7 @@
       <c r="H58" s="93">
         <v>2.2345290000000004E-2</v>
       </c>
-      <c r="I58" s="150"/>
+      <c r="I58" s="103"/>
       <c r="J58" s="90">
         <v>41670</v>
       </c>
@@ -13119,7 +13005,7 @@
       <c r="H59" s="93">
         <v>6.88728E-3</v>
       </c>
-      <c r="I59" s="150"/>
+      <c r="I59" s="103"/>
       <c r="J59" s="90">
         <v>41698</v>
       </c>
@@ -13146,7 +13032,7 @@
       <c r="H60" s="93">
         <v>-3.9739400000000005E-3</v>
       </c>
-      <c r="I60" s="150"/>
+      <c r="I60" s="103"/>
       <c r="J60" s="90">
         <v>41729</v>
       </c>
@@ -13173,7 +13059,7 @@
       <c r="H61" s="93">
         <v>1.083551E-2</v>
       </c>
-      <c r="I61" s="150"/>
+      <c r="I61" s="103"/>
       <c r="J61" s="90">
         <v>41759</v>
       </c>
@@ -13200,7 +13086,7 @@
       <c r="H62" s="93">
         <v>1.466057E-2</v>
       </c>
-      <c r="I62" s="150"/>
+      <c r="I62" s="103"/>
       <c r="J62" s="90">
         <v>41789</v>
       </c>
@@ -13227,7 +13113,7 @@
       <c r="H63" s="93">
         <v>2.7962999999999998E-3</v>
       </c>
-      <c r="I63" s="150"/>
+      <c r="I63" s="103"/>
       <c r="J63" s="90">
         <v>41820</v>
       </c>
@@ -13254,7 +13140,7 @@
       <c r="H64" s="93">
         <v>-2.1180399999999999E-3</v>
       </c>
-      <c r="I64" s="150"/>
+      <c r="I64" s="103"/>
       <c r="J64" s="90">
         <v>41851</v>
       </c>
@@ -13281,7 +13167,7 @@
       <c r="H65" s="93">
         <v>8.6903600000000011E-3</v>
       </c>
-      <c r="I65" s="150"/>
+      <c r="I65" s="103"/>
       <c r="J65" s="90">
         <v>41880</v>
       </c>
@@ -13308,7 +13194,7 @@
       <c r="H66" s="93">
         <v>-1.7210700000000001E-3</v>
       </c>
-      <c r="I66" s="150"/>
+      <c r="I66" s="103"/>
       <c r="J66" s="90">
         <v>41912</v>
       </c>
@@ -13335,7 +13221,7 @@
       <c r="H67" s="93">
         <v>8.07598E-3</v>
       </c>
-      <c r="I67" s="150"/>
+      <c r="I67" s="103"/>
       <c r="J67" s="90">
         <v>41943</v>
       </c>
@@ -13362,7 +13248,7 @@
       <c r="H68" s="93">
         <v>7.1633299999999999E-3</v>
       </c>
-      <c r="I68" s="150"/>
+      <c r="I68" s="103"/>
       <c r="J68" s="90">
         <v>41971</v>
       </c>
@@ -13389,7 +13275,7 @@
       <c r="H69" s="93">
         <v>2.3241899999999998E-3</v>
       </c>
-      <c r="I69" s="150"/>
+      <c r="I69" s="103"/>
       <c r="J69" s="90">
         <v>42004</v>
       </c>
@@ -13416,7 +13302,7 @@
       <c r="H70" s="93">
         <v>9.1557900000000005E-3</v>
       </c>
-      <c r="I70" s="150"/>
+      <c r="I70" s="103"/>
       <c r="J70" s="90">
         <v>42034</v>
       </c>
@@ -13443,7 +13329,7 @@
       <c r="H71" s="93">
         <v>-9.6301999999999998E-4</v>
       </c>
-      <c r="I71" s="150"/>
+      <c r="I71" s="103"/>
       <c r="J71" s="90">
         <v>42062</v>
       </c>
@@ -13470,7 +13356,7 @@
       <c r="H72" s="93">
         <v>3.3826099999999999E-3</v>
       </c>
-      <c r="I72" s="150"/>
+      <c r="I72" s="103"/>
       <c r="J72" s="90">
         <v>42094</v>
       </c>
@@ -13497,7 +13383,7 @@
       <c r="H73" s="93">
         <v>2.4165100000000002E-3</v>
       </c>
-      <c r="I73" s="150"/>
+      <c r="I73" s="103"/>
       <c r="J73" s="90">
         <v>42124</v>
       </c>
@@ -13524,7 +13410,7 @@
       <c r="H74" s="93">
         <v>-4.9313999999999998E-4</v>
       </c>
-      <c r="I74" s="150"/>
+      <c r="I74" s="103"/>
       <c r="J74" s="90">
         <v>42153</v>
       </c>
@@ -13551,7 +13437,7 @@
       <c r="H75" s="93">
         <v>-7.77146E-3</v>
       </c>
-      <c r="I75" s="150"/>
+      <c r="I75" s="103"/>
       <c r="J75" s="90">
         <v>42185</v>
       </c>
@@ -13578,7 +13464,7 @@
       <c r="H76" s="93">
         <v>5.7246200000000006E-3</v>
       </c>
-      <c r="I76" s="150"/>
+      <c r="I76" s="103"/>
       <c r="J76" s="90">
         <v>42216</v>
       </c>
@@ -13605,7 +13491,7 @@
       <c r="H77" s="93">
         <v>9.9179999999999996E-5</v>
       </c>
-      <c r="I77" s="150"/>
+      <c r="I77" s="103"/>
       <c r="J77" s="90">
         <v>42247</v>
       </c>
@@ -13632,7 +13518,7 @@
       <c r="H78" s="93">
         <v>4.1635499999999994E-3</v>
       </c>
-      <c r="I78" s="150"/>
+      <c r="I78" s="103"/>
       <c r="J78" s="90">
         <v>42277</v>
       </c>
@@ -13659,7 +13545,7 @@
       <c r="H79" s="93">
         <v>5.1663000000000002E-4</v>
       </c>
-      <c r="I79" s="150"/>
+      <c r="I79" s="103"/>
       <c r="J79" s="90">
         <v>42307</v>
       </c>
@@ -13686,7 +13572,7 @@
       <c r="H80" s="93">
         <v>-5.3494999999999997E-4</v>
       </c>
-      <c r="I80" s="150"/>
+      <c r="I80" s="103"/>
       <c r="J80" s="90">
         <v>42338</v>
       </c>
@@ -13713,7 +13599,7 @@
       <c r="H81" s="93">
         <v>-7.3911000000000007E-4</v>
       </c>
-      <c r="I81" s="150"/>
+      <c r="I81" s="103"/>
       <c r="J81" s="90">
         <v>42369</v>
       </c>
@@ -13740,7 +13626,7 @@
       <c r="H82" s="93">
         <v>1.039144E-2</v>
       </c>
-      <c r="I82" s="150"/>
+      <c r="I82" s="103"/>
       <c r="J82" s="90">
         <v>42398</v>
       </c>
@@ -13767,7 +13653,7 @@
       <c r="H83" s="93">
         <v>2.7108700000000002E-3</v>
       </c>
-      <c r="I83" s="150"/>
+      <c r="I83" s="103"/>
       <c r="J83" s="90">
         <v>42429</v>
       </c>
@@ -13794,7 +13680,7 @@
       <c r="H84" s="93">
         <v>4.7383599999999996E-3</v>
       </c>
-      <c r="I84" s="150"/>
+      <c r="I84" s="103"/>
       <c r="J84" s="90">
         <v>42460</v>
       </c>
@@ -13821,7 +13707,7 @@
       <c r="H85" s="93">
         <v>3.7587300000000001E-3</v>
       </c>
-      <c r="I85" s="150"/>
+      <c r="I85" s="103"/>
       <c r="J85" s="90">
         <v>42489</v>
       </c>
@@ -13848,7 +13734,7 @@
       <c r="H86" s="93">
         <v>1.87824E-3</v>
       </c>
-      <c r="I86" s="150"/>
+      <c r="I86" s="103"/>
       <c r="J86" s="90">
         <v>42521</v>
       </c>
@@ -13875,7 +13761,7 @@
       <c r="H87" s="93">
         <v>7.5198000000000001E-3</v>
       </c>
-      <c r="I87" s="150"/>
+      <c r="I87" s="103"/>
       <c r="J87" s="90">
         <v>42551</v>
       </c>
@@ -13902,7 +13788,7 @@
       <c r="H88" s="93">
         <v>7.2641199999999998E-3</v>
       </c>
-      <c r="I88" s="150"/>
+      <c r="I88" s="103"/>
       <c r="J88" s="90">
         <v>42580</v>
       </c>
@@ -13929,7 +13815,7 @@
       <c r="H89" s="93">
         <v>2.1767499999999999E-3</v>
       </c>
-      <c r="I89" s="150"/>
+      <c r="I89" s="103"/>
       <c r="J89" s="90">
         <v>42613</v>
       </c>
@@ -13956,7 +13842,7 @@
       <c r="H90" s="93">
         <v>3.07713E-3</v>
       </c>
-      <c r="I90" s="150"/>
+      <c r="I90" s="103"/>
       <c r="J90" s="90">
         <v>42643</v>
       </c>
@@ -13983,7 +13869,7 @@
       <c r="H91" s="93">
         <v>-1.9789999999999999E-3</v>
       </c>
-      <c r="I91" s="150"/>
+      <c r="I91" s="103"/>
       <c r="J91" s="90">
         <v>42674</v>
       </c>
@@ -14010,7 +13896,7 @@
       <c r="H92" s="93">
         <v>-1.536583E-2</v>
       </c>
-      <c r="I92" s="150"/>
+      <c r="I92" s="103"/>
       <c r="J92" s="90">
         <v>42704</v>
       </c>
@@ -14037,7 +13923,7 @@
       <c r="H93" s="93">
         <v>1.44E-4</v>
       </c>
-      <c r="I93" s="150"/>
+      <c r="I93" s="103"/>
       <c r="J93" s="90">
         <v>42734</v>
       </c>
@@ -14064,7 +13950,7 @@
       <c r="H94" s="93">
         <v>2.8480999999999998E-4</v>
       </c>
-      <c r="I94" s="150"/>
+      <c r="I94" s="103"/>
       <c r="J94" s="90">
         <v>42766</v>
       </c>
@@ -14091,7 +13977,7 @@
       <c r="H95" s="93">
         <v>6.2893000000000003E-3</v>
       </c>
-      <c r="I95" s="150"/>
+      <c r="I95" s="103"/>
       <c r="J95" s="90">
         <v>42794</v>
       </c>
@@ -14118,7 +14004,7 @@
       <c r="H96" s="93">
         <v>4.4810999999999999E-4</v>
       </c>
-      <c r="I96" s="150"/>
+      <c r="I96" s="103"/>
       <c r="J96" s="90">
         <v>42825</v>
       </c>
@@ -14145,7 +14031,7 @@
       <c r="H97" s="93">
         <v>6.3530399999999999E-3</v>
       </c>
-      <c r="I97" s="150"/>
+      <c r="I97" s="103"/>
       <c r="J97" s="90">
         <v>42853</v>
       </c>
@@ -14172,7 +14058,7 @@
       <c r="H98" s="93">
         <v>6.2166299999999999E-3</v>
       </c>
-      <c r="I98" s="150"/>
+      <c r="I98" s="103"/>
       <c r="J98" s="90">
         <v>42886</v>
       </c>
@@ -14199,7 +14085,7 @@
       <c r="H99" s="93">
         <v>-2.38675E-3</v>
       </c>
-      <c r="I99" s="150"/>
+      <c r="I99" s="103"/>
       <c r="J99" s="90">
         <v>42916</v>
       </c>
@@ -14226,7 +14112,7 @@
       <c r="H100" s="93">
         <v>4.4799599999999998E-3</v>
       </c>
-      <c r="I100" s="150"/>
+      <c r="I100" s="103"/>
       <c r="J100" s="90">
         <v>42947</v>
       </c>
@@ -14253,7 +14139,7 @@
       <c r="H101" s="93">
         <v>6.6184799999999995E-3</v>
       </c>
-      <c r="I101" s="150"/>
+      <c r="I101" s="103"/>
       <c r="J101" s="90">
         <v>42978</v>
       </c>
@@ -14269,7 +14155,6 @@
         <v>-3.56815E-3</v>
       </c>
       <c r="C102">
-        <f>_xll.BDH($A$12,"px_last",A102,A102)</f>
         <v>10.7</v>
       </c>
       <c r="D102" s="90">
@@ -14284,7 +14169,7 @@
       <c r="H102" s="93">
         <v>-2.6963900000000003E-3</v>
       </c>
-      <c r="I102" s="150"/>
+      <c r="I102" s="103"/>
       <c r="J102" s="90">
         <v>43007</v>
       </c>
@@ -15465,7 +15350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15537,7 +15424,7 @@
       <c r="E2" s="92">
         <v>0.33871932999999993</v>
       </c>
-      <c r="F2" s="153" t="s">
+      <c r="F2" s="106" t="s">
         <v>218</v>
       </c>
       <c r="G2" s="92"/>
@@ -15553,7 +15440,7 @@
       <c r="K2" s="92">
         <v>0.10448542999999999</v>
       </c>
-      <c r="L2" s="154" t="s">
+      <c r="L2" s="107" t="s">
         <v>218</v>
       </c>
       <c r="M2" t="s">
@@ -15576,7 +15463,7 @@
       <c r="E3" s="92">
         <v>6.8958789999999992E-2</v>
       </c>
-      <c r="F3" s="153" t="s">
+      <c r="F3" s="106" t="s">
         <v>218</v>
       </c>
       <c r="G3" s="92"/>
@@ -15592,7 +15479,7 @@
       <c r="K3" s="92">
         <v>4.8539850000000009E-2</v>
       </c>
-      <c r="L3" s="154" t="s">
+      <c r="L3" s="107" t="s">
         <v>218</v>
       </c>
     </row>
@@ -15612,7 +15499,7 @@
       <c r="E4" s="92">
         <v>5.2236339999999999E-2</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="F4" s="106" t="s">
         <v>218</v>
       </c>
       <c r="G4" s="92"/>
@@ -15628,7 +15515,7 @@
       <c r="K4" s="92">
         <v>3.9209369999999986E-2</v>
       </c>
-      <c r="L4" s="154" t="s">
+      <c r="L4" s="107" t="s">
         <v>218</v>
       </c>
     </row>
@@ -15665,7 +15552,6 @@
         <v>8.7659900000000013E-3</v>
       </c>
       <c r="L5" s="92">
-        <f>Table1[[#This Row],[DBLTX US Equity]]-Table1[[#This Row],[Intermediate Credit]]</f>
         <v>1.796035E-2</v>
       </c>
     </row>
@@ -15702,7 +15588,6 @@
         <v>5.1945000000000012E-3</v>
       </c>
       <c r="L6" s="92">
-        <f>Table1[[#This Row],[DBLTX US Equity]]-Table1[[#This Row],[Intermediate Credit]]</f>
         <v>1.4779570000000002E-2</v>
       </c>
     </row>
@@ -15739,7 +15624,6 @@
         <v>-1.0362030000000008E-2</v>
       </c>
       <c r="L7" s="92">
-        <f>Table1[[#This Row],[DBLTX US Equity]]-Table1[[#This Row],[Intermediate Credit]]</f>
         <v>1.380373E-2</v>
       </c>
     </row>
@@ -15776,7 +15660,6 @@
         <v>8.181370000000002E-3</v>
       </c>
       <c r="L8" s="92">
-        <f>Table1[[#This Row],[DBLTX US Equity]]-Table1[[#This Row],[Intermediate Credit]]</f>
         <v>2.5738580000000004E-2</v>
       </c>
     </row>
@@ -15813,7 +15696,6 @@
         <v>-4.5576399999999809E-3</v>
       </c>
       <c r="L9" s="92">
-        <f>Table1[[#This Row],[DBLTX US Equity]]-Table1[[#This Row],[Intermediate Credit]]</f>
         <v>-1.0543029999999991E-2</v>
       </c>
       <c r="M9" t="s">
@@ -15853,7 +15735,6 @@
         <v>9.5140200000000084E-3</v>
       </c>
       <c r="L10" s="92">
-        <f>Table1[[#This Row],[DBLTX US Equity]]-Table1[[#This Row],[Intermediate Credit]]</f>
         <v>1.1212100000000044E-3</v>
       </c>
     </row>
@@ -15899,39 +15780,32 @@
         <v>194</v>
       </c>
       <c r="B15" s="100">
-        <f>SUM(B4:B10)</f>
         <v>0.32570611999999999</v>
       </c>
       <c r="C15" s="100">
-        <f>SUM(C4:C10)</f>
         <v>0.21964582000000002</v>
       </c>
       <c r="D15" s="100">
-        <f>SUM(D4:D10)</f>
         <v>0.18692632999999997</v>
       </c>
       <c r="E15" s="100">
-        <f>SUM(E4:E10)</f>
         <v>0.26976053999999999</v>
       </c>
-      <c r="F15" s="154" t="s">
+      <c r="F15" s="107" t="s">
         <v>218</v>
       </c>
       <c r="G15" s="100"/>
       <c r="H15" s="100"/>
       <c r="I15" s="100">
-        <f>$B$15-C15</f>
         <v>0.10606029999999997</v>
       </c>
       <c r="J15" s="100">
-        <f>$B$15-D15</f>
         <v>0.13877979000000001</v>
       </c>
       <c r="K15" s="100">
-        <f>B15-E15</f>
         <v>5.5945579999999995E-2</v>
       </c>
-      <c r="L15" s="154" t="s">
+      <c r="L15" s="107" t="s">
         <v>218</v>
       </c>
     </row>
@@ -15940,39 +15814,30 @@
         <v>221</v>
       </c>
       <c r="B16" s="100">
-        <f>SUM(B5:B10)</f>
         <v>0.23426041000000006</v>
       </c>
       <c r="C16" s="100">
-        <f>SUM(C5:C10)</f>
         <v>0.14366155</v>
       </c>
       <c r="D16" s="100">
-        <f>SUM(D5:D10)</f>
         <v>0.12620370000000003</v>
       </c>
       <c r="E16" s="100">
-        <f>SUM(E5:E10)</f>
         <v>0.21752419999999997</v>
       </c>
       <c r="F16" s="100">
-        <f>SUM(F5:F10)</f>
         <v>0.1714</v>
       </c>
       <c r="I16" s="100">
-        <f>$B$15-C16</f>
         <v>0.18204456999999999</v>
       </c>
       <c r="J16" s="100">
-        <f>$B$15-D16</f>
         <v>0.19950241999999996</v>
       </c>
       <c r="K16" s="100">
-        <f>B16-E16</f>
         <v>1.6736210000000085E-2</v>
       </c>
       <c r="L16" s="100">
-        <f>B16-F16</f>
         <v>6.2860410000000061E-2</v>
       </c>
     </row>
@@ -16132,7 +15997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16146,12 +16013,12 @@
       <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="157" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
       <c r="F1" s="79"/>
       <c r="J1" t="s">
         <v>212</v>
@@ -16197,7 +16064,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="F3" s="89"/>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="104" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="100">
@@ -16212,7 +16079,7 @@
       <c r="M3" s="100">
         <v>6.5700000000000008E-2</v>
       </c>
-      <c r="N3" s="152" t="s">
+      <c r="N3" s="105" t="s">
         <v>218</v>
       </c>
     </row>
@@ -16228,8 +16095,8 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="F4" s="84"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151" t="s">
+      <c r="H4" s="104"/>
+      <c r="I4" s="104" t="s">
         <v>213</v>
       </c>
       <c r="J4" s="100">
@@ -16241,7 +16108,7 @@
       <c r="L4" s="100">
         <v>2.12E-2</v>
       </c>
-      <c r="M4" s="152" t="s">
+      <c r="M4" s="105" t="s">
         <v>218</v>
       </c>
       <c r="N4" s="100">
@@ -16260,7 +16127,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F5" s="89"/>
-      <c r="I5" s="151" t="s">
+      <c r="I5" s="104" t="s">
         <v>210</v>
       </c>
       <c r="J5" s="100">
@@ -16272,7 +16139,7 @@
       <c r="L5" s="100">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="M5" s="152" t="s">
+      <c r="M5" s="105" t="s">
         <v>218</v>
       </c>
       <c r="N5" s="100">
@@ -16348,7 +16215,7 @@
         <v>-1E-3</v>
       </c>
       <c r="F9" s="89"/>
-      <c r="I9" s="151" t="s">
+      <c r="I9" s="104" t="s">
         <v>28</v>
       </c>
       <c r="J9" s="100">
@@ -16363,12 +16230,12 @@
       <c r="M9" s="100">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="N9" s="152" t="s">
+      <c r="N9" s="105" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="151" t="s">
+      <c r="I10" s="104" t="s">
         <v>213</v>
       </c>
       <c r="J10" s="100">
@@ -16380,7 +16247,7 @@
       <c r="L10" s="100">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="M10" s="152" t="s">
+      <c r="M10" s="105" t="s">
         <v>218</v>
       </c>
       <c r="N10" s="100">
@@ -16388,7 +16255,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="151" t="s">
+      <c r="I11" s="104" t="s">
         <v>210</v>
       </c>
       <c r="J11" s="100">
@@ -16400,7 +16267,7 @@
       <c r="L11" s="100">
         <v>1.44E-2</v>
       </c>
-      <c r="M11" s="152" t="s">
+      <c r="M11" s="105" t="s">
         <v>218</v>
       </c>
       <c r="N11" s="100">
